--- a/capiq_data/in_process_data/IQ265621.xlsx
+++ b/capiq_data/in_process_data/IQ265621.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739584D0-BD6C-4BDF-80CA-D7B199D6DE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C44224-1E32-4CBA-94DF-7ED5AF1E6471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2b48d9e4-f950-401d-812b-5dfae8cb4d77"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"38382ab8-d207-42a3-9e60-937ad93b39d1"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>473.85599999999999</v>
+        <v>87.763999999999996</v>
       </c>
       <c r="D2">
-        <v>3231.94</v>
+        <v>1032.3689999999999</v>
       </c>
       <c r="E2">
-        <v>2097.9740000000002</v>
+        <v>704.21400000000006</v>
       </c>
       <c r="F2">
-        <v>1772.3240000000001</v>
+        <v>395.59500000000003</v>
       </c>
       <c r="G2">
-        <v>6065.4549999999999</v>
+        <v>1474.306</v>
       </c>
       <c r="H2">
-        <v>22217.13</v>
+        <v>4031.6790000000001</v>
       </c>
       <c r="I2">
-        <v>1124.8209999999999</v>
+        <v>262.09500000000003</v>
       </c>
       <c r="J2">
-        <v>2783.9070000000002</v>
+        <v>713.55700000000002</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3320.7020000000002</v>
+        <v>1018.54</v>
       </c>
       <c r="O2">
-        <v>8444.3639999999996</v>
+        <v>2089.346</v>
       </c>
       <c r="P2">
-        <v>2824.6680000000001</v>
+        <v>795.19</v>
       </c>
       <c r="Q2">
-        <v>-2.0609999999999999</v>
+        <v>23.132999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>48200</v>
+        <v>24000</v>
       </c>
       <c r="T2">
-        <v>13772.766</v>
+        <v>1942.3330000000001</v>
       </c>
       <c r="U2">
-        <v>1632.98</v>
+        <v>176.92400000000001</v>
       </c>
       <c r="V2">
-        <v>573.28200000000004</v>
+        <v>115.52</v>
       </c>
       <c r="W2">
-        <v>-13.127000000000001</v>
+        <v>-2.84</v>
       </c>
       <c r="X2">
-        <v>47.822000000000003</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>473.85599999999999</v>
+        <v>87.763999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40634</v>
+        <v>36980</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>429.358</v>
+        <v>82.576999999999998</v>
       </c>
       <c r="D3">
-        <v>3292.1979999999999</v>
+        <v>1005.283</v>
       </c>
       <c r="E3">
-        <v>2210.2240000000002</v>
+        <v>647.774</v>
       </c>
       <c r="F3">
-        <v>1748.85</v>
+        <v>376.88499999999999</v>
       </c>
       <c r="G3">
-        <v>6131.8919999999998</v>
+        <v>1870.952</v>
       </c>
       <c r="H3">
-        <v>23034.881000000001</v>
+        <v>4509.3779999999997</v>
       </c>
       <c r="I3">
-        <v>1239.1369999999999</v>
+        <v>253.86799999999999</v>
       </c>
       <c r="J3">
-        <v>2668.0390000000002</v>
+        <v>1106.902</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.0209999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3323.855</v>
+        <v>999.23400000000004</v>
       </c>
       <c r="O3">
-        <v>8311.1919999999991</v>
+        <v>2473.2809999999999</v>
       </c>
       <c r="P3">
-        <v>2726.9609999999998</v>
+        <v>1182.0920000000001</v>
       </c>
       <c r="Q3">
-        <v>-39.420999999999999</v>
+        <v>492.30599999999998</v>
       </c>
       <c r="R3">
-        <v>40634</v>
+        <v>36980</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>14723.689</v>
+        <v>2036.097</v>
       </c>
       <c r="U3">
-        <v>1593.559</v>
+        <v>669.23</v>
       </c>
       <c r="V3">
-        <v>436.483</v>
+        <v>173.69399999999999</v>
       </c>
       <c r="W3">
-        <v>-13.268000000000001</v>
+        <v>-2.85</v>
       </c>
       <c r="X3">
-        <v>52.462000000000003</v>
+        <v>416.60700000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>429.358</v>
+        <v>82.576999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40725</v>
+        <v>37071</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>648.76400000000001</v>
+        <v>94.23</v>
       </c>
       <c r="D4">
-        <v>3635.8710000000001</v>
+        <v>956.64099999999996</v>
       </c>
       <c r="E4">
-        <v>3099.4180000000001</v>
+        <v>635.29499999999996</v>
       </c>
       <c r="F4">
-        <v>1917.5519999999999</v>
+        <v>375.34100000000001</v>
       </c>
       <c r="G4">
-        <v>6554.8</v>
+        <v>1889.1120000000001</v>
       </c>
       <c r="H4">
-        <v>31513.376</v>
+        <v>4619.8950000000004</v>
       </c>
       <c r="I4">
-        <v>1515.1130000000001</v>
+        <v>270.73500000000001</v>
       </c>
       <c r="J4">
-        <v>6524.9309999999996</v>
+        <v>1101.1099999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4281.2960000000003</v>
+        <v>973.40099999999995</v>
       </c>
       <c r="O4">
-        <v>14957.857</v>
+        <v>2500.2939999999999</v>
       </c>
       <c r="P4">
-        <v>6572.8630000000003</v>
+        <v>1174.0920000000001</v>
       </c>
       <c r="Q4">
-        <v>-1041.9760000000001</v>
+        <v>6.08</v>
       </c>
       <c r="R4">
-        <v>40725</v>
+        <v>37071</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>16555.519</v>
+        <v>2119.6010000000001</v>
       </c>
       <c r="U4">
-        <v>551.58299999999997</v>
+        <v>675.31</v>
       </c>
       <c r="V4">
-        <v>662.649</v>
+        <v>137.559</v>
       </c>
       <c r="W4">
-        <v>-13.705</v>
+        <v>-2.85</v>
       </c>
       <c r="X4">
-        <v>3216.777</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>648.76400000000001</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>523.428</v>
+        <v>87.745999999999995</v>
       </c>
       <c r="D5">
-        <v>4445.7870000000003</v>
+        <v>901.58799999999997</v>
       </c>
       <c r="E5">
-        <v>3007.192</v>
+        <v>632.81100000000004</v>
       </c>
       <c r="F5">
-        <v>2183.0810000000001</v>
+        <v>353.95800000000003</v>
       </c>
       <c r="G5">
-        <v>6314.5379999999996</v>
+        <v>1870.0309999999999</v>
       </c>
       <c r="H5">
-        <v>30618.423999999999</v>
+        <v>4715.0119999999997</v>
       </c>
       <c r="I5">
-        <v>1467.3489999999999</v>
+        <v>252.41</v>
       </c>
       <c r="J5">
-        <v>5813.4059999999999</v>
+        <v>1121.6969999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4123.6949999999997</v>
+        <v>972.25099999999998</v>
       </c>
       <c r="O5">
-        <v>14056.272999999999</v>
+        <v>2511.6039999999998</v>
       </c>
       <c r="P5">
-        <v>5895.69</v>
+        <v>1196.1020000000001</v>
       </c>
       <c r="Q5">
-        <v>-67.215000000000003</v>
+        <v>-28.844000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>16562.151000000002</v>
+        <v>2203.4079999999999</v>
       </c>
       <c r="U5">
-        <v>484.36799999999999</v>
+        <v>646.46600000000001</v>
       </c>
       <c r="V5">
-        <v>699.94200000000001</v>
+        <v>119.07599999999999</v>
       </c>
       <c r="W5">
-        <v>-17.155999999999999</v>
+        <v>-2.847</v>
       </c>
       <c r="X5">
-        <v>-645.83399999999995</v>
+        <v>-5.23</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>523.428</v>
+        <v>87.745999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>570.75</v>
+        <v>33.112000000000002</v>
       </c>
       <c r="D6">
-        <v>4716.6440000000002</v>
+        <v>918.93200000000002</v>
       </c>
       <c r="E6">
-        <v>3049.9</v>
+        <v>585.31799999999998</v>
       </c>
       <c r="F6">
-        <v>2512.0169999999998</v>
+        <v>342.233</v>
       </c>
       <c r="G6">
-        <v>6272.4</v>
+        <v>1874.615</v>
       </c>
       <c r="H6">
-        <v>29949.5</v>
+        <v>4820.4830000000002</v>
       </c>
       <c r="I6">
-        <v>1422.4</v>
+        <v>235.501</v>
       </c>
       <c r="J6">
-        <v>5206.8</v>
+        <v>1119.3330000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4172</v>
+        <v>1017.294</v>
       </c>
       <c r="O6">
-        <v>12977.7</v>
+        <v>2591.8969999999999</v>
       </c>
       <c r="P6">
-        <v>5305.2</v>
+        <v>1191.6890000000001</v>
       </c>
       <c r="Q6">
-        <v>52.612000000000002</v>
+        <v>60.093000000000004</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>59000</v>
+        <v>23000</v>
       </c>
       <c r="T6">
-        <v>16971.8</v>
+        <v>2228.5859999999998</v>
       </c>
       <c r="U6">
-        <v>537</v>
+        <v>706.55899999999997</v>
       </c>
       <c r="V6">
-        <v>827.226</v>
+        <v>178.142</v>
       </c>
       <c r="W6">
-        <v>-17.170999999999999</v>
+        <v>-3.129</v>
       </c>
       <c r="X6">
-        <v>-534.80499999999995</v>
+        <v>-5.8810000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>570.75</v>
+        <v>33.112000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40998</v>
+        <v>37344</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>612.9</v>
+        <v>-91.015000000000001</v>
       </c>
       <c r="D7">
-        <v>4316.2</v>
+        <v>1004.207</v>
       </c>
       <c r="E7">
-        <v>2996.4569999999999</v>
+        <v>721.20899999999995</v>
       </c>
       <c r="F7">
-        <v>2235.5</v>
+        <v>376.02300000000002</v>
       </c>
       <c r="G7">
-        <v>6543.223</v>
+        <v>1933.8679999999999</v>
       </c>
       <c r="H7">
-        <v>30420.958999999999</v>
+        <v>5433.5119999999997</v>
       </c>
       <c r="I7">
-        <v>1465.982</v>
+        <v>303.25200000000001</v>
       </c>
       <c r="J7">
-        <v>4862.7160000000003</v>
+        <v>1103.8440000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-362.9</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-1.4</v>
+        <v>-49.027000000000001</v>
       </c>
       <c r="N7">
-        <v>3912.5659999999998</v>
+        <v>1242.231</v>
       </c>
       <c r="O7">
-        <v>12529.757</v>
+        <v>2815.913</v>
       </c>
       <c r="P7">
-        <v>4925.8239999999996</v>
+        <v>1185.0930000000001</v>
       </c>
       <c r="Q7">
-        <v>506.3</v>
+        <v>-135.107</v>
       </c>
       <c r="R7">
-        <v>40998</v>
+        <v>37344</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>17891.202000000001</v>
+        <v>2617.5990000000002</v>
       </c>
       <c r="U7">
-        <v>1043.2829999999999</v>
+        <v>571.452</v>
       </c>
       <c r="V7">
-        <v>645.29999999999995</v>
+        <v>263.24700000000001</v>
       </c>
       <c r="W7">
-        <v>-17.3</v>
+        <v>-3.0190000000000001</v>
       </c>
       <c r="X7">
-        <v>-310.60000000000002</v>
+        <v>429.64600000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>612.9</v>
+        <v>-91.015000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>600.20000000000005</v>
+        <v>103.66500000000001</v>
       </c>
       <c r="D8">
-        <v>4553.5</v>
+        <v>1146.326</v>
       </c>
       <c r="E8">
-        <v>3094.25</v>
+        <v>746.40499999999997</v>
       </c>
       <c r="F8">
-        <v>2355.5</v>
+        <v>444.41800000000001</v>
       </c>
       <c r="G8">
-        <v>6610.4949999999999</v>
+        <v>2130.9830000000002</v>
       </c>
       <c r="H8">
-        <v>31170.582999999999</v>
+        <v>5644.8010000000004</v>
       </c>
       <c r="I8">
-        <v>1511.0609999999999</v>
+        <v>328.11700000000002</v>
       </c>
       <c r="J8">
-        <v>4847.62</v>
+        <v>1112.6489999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4029.701</v>
+        <v>1318.306</v>
       </c>
       <c r="O8">
-        <v>12802.859</v>
+        <v>2907.011</v>
       </c>
       <c r="P8">
-        <v>4903.027</v>
+        <v>1221.481</v>
       </c>
       <c r="Q8">
-        <v>74.900000000000006</v>
+        <v>133.62299999999999</v>
       </c>
       <c r="R8">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>18367.723999999998</v>
+        <v>2737.79</v>
       </c>
       <c r="U8">
-        <v>1118.24</v>
+        <v>705.07500000000005</v>
       </c>
       <c r="V8">
-        <v>1008.8</v>
+        <v>130.19900000000001</v>
       </c>
       <c r="W8">
-        <v>-17.399999999999999</v>
+        <v>-3.024</v>
       </c>
       <c r="X8">
-        <v>68</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>600.20000000000005</v>
+        <v>103.66500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41180</v>
+        <v>37526</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>548.70000000000005</v>
+        <v>116.029</v>
       </c>
       <c r="D9">
-        <v>4415.5</v>
+        <v>1151.721</v>
       </c>
       <c r="E9">
-        <v>2984.7280000000001</v>
+        <v>757.00599999999997</v>
       </c>
       <c r="F9">
-        <v>2278</v>
+        <v>460.07299999999998</v>
       </c>
       <c r="G9">
-        <v>6908</v>
+        <v>2246.5880000000002</v>
       </c>
       <c r="H9">
-        <v>31585.42</v>
+        <v>5894.8010000000004</v>
       </c>
       <c r="I9">
-        <v>1492.6320000000001</v>
+        <v>358.69400000000002</v>
       </c>
       <c r="J9">
-        <v>4659.1580000000004</v>
+        <v>1143.223</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3934.6889999999999</v>
+        <v>1372.9880000000001</v>
       </c>
       <c r="O9">
-        <v>12632.654</v>
+        <v>3010.7510000000002</v>
       </c>
       <c r="P9">
-        <v>4714.2209999999995</v>
+        <v>1253.415</v>
       </c>
       <c r="Q9">
-        <v>423.1</v>
+        <v>98.102999999999994</v>
       </c>
       <c r="R9">
-        <v>41180</v>
+        <v>37526</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>18952.766</v>
+        <v>2884.05</v>
       </c>
       <c r="U9">
-        <v>1541.335</v>
+        <v>803.178</v>
       </c>
       <c r="V9">
-        <v>961.2</v>
+        <v>171.983</v>
       </c>
       <c r="W9">
-        <v>-17.3</v>
+        <v>-3.0289999999999999</v>
       </c>
       <c r="X9">
-        <v>-423.1</v>
+        <v>45.618000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>548.70000000000005</v>
+        <v>116.029</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>630.4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4975.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3267.3</v>
+        <v>759.02800000000002</v>
       </c>
       <c r="F10">
-        <v>2545.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>7587.8</v>
+        <v>2387.2660000000001</v>
       </c>
       <c r="H10">
-        <v>32941</v>
+        <v>6029.1450000000004</v>
       </c>
       <c r="I10">
-        <v>1546.3</v>
+        <v>366.58699999999999</v>
       </c>
       <c r="J10">
-        <v>5287.6</v>
+        <v>1197.422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4206.1000000000004</v>
+        <v>1265.3119999999999</v>
       </c>
       <c r="O10">
-        <v>13857.1</v>
+        <v>3019.5459999999998</v>
       </c>
       <c r="P10">
-        <v>5343.1</v>
+        <v>1309.9639999999999</v>
       </c>
       <c r="Q10">
-        <v>137.4</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>63000</v>
+        <v>29000</v>
       </c>
       <c r="T10">
-        <v>19083.900000000001</v>
+        <v>3009.5990000000002</v>
       </c>
       <c r="U10">
-        <v>1678.7</v>
+        <v>810.46299999999997</v>
       </c>
       <c r="V10">
-        <v>799.7</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-34.4</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>277.3</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,122 +1595,122 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>630.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41362</v>
+        <v>37708</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>691.9</v>
+        <v>103.126</v>
       </c>
       <c r="D11">
-        <v>4444.7</v>
+        <v>1196.2149999999999</v>
       </c>
       <c r="E11">
-        <v>3118.3</v>
+        <v>770.33900000000006</v>
       </c>
       <c r="F11">
-        <v>2325.6999999999998</v>
+        <v>467.399</v>
       </c>
       <c r="G11">
-        <v>7910</v>
+        <v>2517.86</v>
       </c>
       <c r="H11">
-        <v>32469.3</v>
+        <v>6292.7120000000004</v>
       </c>
       <c r="I11">
-        <v>1534.5</v>
+        <v>395.17700000000002</v>
       </c>
       <c r="J11">
-        <v>4404.3</v>
+        <v>1217.508</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-764.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.5</v>
+        <v>-3.625</v>
       </c>
       <c r="N11">
-        <v>3926.5</v>
+        <v>1368.826</v>
       </c>
       <c r="O11">
-        <v>12720.1</v>
+        <v>3173.19</v>
       </c>
       <c r="P11">
-        <v>4471.3</v>
+        <v>1369.9880000000001</v>
       </c>
       <c r="Q11">
-        <v>472</v>
+        <v>101.17</v>
       </c>
       <c r="R11">
-        <v>41362</v>
+        <v>37708</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19749.2</v>
+        <v>3119.5219999999999</v>
       </c>
       <c r="U11">
-        <v>2150.6999999999998</v>
+        <v>911.63300000000004</v>
       </c>
       <c r="V11">
-        <v>636.5</v>
+        <v>214.33600000000001</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-3.8180000000000001</v>
       </c>
       <c r="X11">
-        <v>-710.5</v>
+        <v>4.1529999999999996</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>691.9</v>
+        <v>103.126</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41453</v>
+        <v>37799</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>616.79999999999995</v>
+        <v>125.14400000000001</v>
       </c>
       <c r="D12">
-        <v>4737.5</v>
+        <v>1299.432</v>
       </c>
       <c r="E12">
-        <v>3281.4</v>
+        <v>784.06200000000001</v>
       </c>
       <c r="F12">
-        <v>2495.5</v>
+        <v>524.88599999999997</v>
       </c>
       <c r="G12">
-        <v>8231</v>
+        <v>2669.1779999999999</v>
       </c>
       <c r="H12">
-        <v>33109</v>
+        <v>6464.8</v>
       </c>
       <c r="I12">
-        <v>1621.4</v>
+        <v>415.08800000000002</v>
       </c>
       <c r="J12">
-        <v>4100.8999999999996</v>
+        <v>1249.6410000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4132.5</v>
+        <v>1312.4870000000001</v>
       </c>
       <c r="O12">
-        <v>12744.4</v>
+        <v>3190.0839999999998</v>
       </c>
       <c r="P12">
-        <v>4154.8</v>
+        <v>1326.059</v>
       </c>
       <c r="Q12">
-        <v>174.2</v>
+        <v>156.477</v>
       </c>
       <c r="R12">
-        <v>41453</v>
+        <v>37799</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>20364.599999999999</v>
+        <v>3274.7159999999999</v>
       </c>
       <c r="U12">
-        <v>2324.9</v>
+        <v>1068.1099999999999</v>
       </c>
       <c r="V12">
-        <v>899.2</v>
+        <v>234.91200000000001</v>
       </c>
       <c r="W12">
-        <v>-17.3</v>
+        <v>-3.8279999999999998</v>
       </c>
       <c r="X12">
-        <v>-275.2</v>
+        <v>-70.477000000000004</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>616.79999999999995</v>
+        <v>125.14400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41544</v>
+        <v>37890</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>597</v>
+        <v>138.61799999999999</v>
       </c>
       <c r="D13">
-        <v>4669.1000000000004</v>
+        <v>1309.451</v>
       </c>
       <c r="E13">
-        <v>3372.7</v>
+        <v>836.58600000000001</v>
       </c>
       <c r="F13">
-        <v>2424.6999999999998</v>
+        <v>542.50300000000004</v>
       </c>
       <c r="G13">
-        <v>8023.7</v>
+        <v>2780.4070000000002</v>
       </c>
       <c r="H13">
-        <v>33721.199999999997</v>
+        <v>6590.2219999999998</v>
       </c>
       <c r="I13">
-        <v>1683.6</v>
+        <v>439.49400000000003</v>
       </c>
       <c r="J13">
-        <v>3445.5</v>
+        <v>1246.008</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4279.3999999999996</v>
+        <v>1277.68</v>
       </c>
       <c r="O13">
-        <v>12350.4</v>
+        <v>3130.058</v>
       </c>
       <c r="P13">
-        <v>3502</v>
+        <v>1256.307</v>
       </c>
       <c r="Q13">
-        <v>-329.3</v>
+        <v>36.616999999999997</v>
       </c>
       <c r="R13">
-        <v>41544</v>
+        <v>37890</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>21370.799999999999</v>
+        <v>3460.1640000000002</v>
       </c>
       <c r="U13">
-        <v>1995.6</v>
+        <v>1104.7270000000001</v>
       </c>
       <c r="V13">
-        <v>971.4</v>
+        <v>170.11099999999999</v>
       </c>
       <c r="W13">
-        <v>-17.399999999999999</v>
+        <v>-3.8380000000000001</v>
       </c>
       <c r="X13">
-        <v>-635.20000000000005</v>
+        <v>-59.656999999999996</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>597</v>
+        <v>138.61799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>789.3</v>
+        <v>169.946</v>
       </c>
       <c r="D14">
-        <v>5266.7</v>
+        <v>1488.778</v>
       </c>
       <c r="E14">
-        <v>3451.6</v>
+        <v>868.09699999999998</v>
       </c>
       <c r="F14">
-        <v>2738.2</v>
+        <v>604.279</v>
       </c>
       <c r="G14">
-        <v>9113.7000000000007</v>
+        <v>2942.1509999999998</v>
       </c>
       <c r="H14">
-        <v>34672.199999999997</v>
+        <v>6890.05</v>
       </c>
       <c r="I14">
-        <v>1778.2</v>
+        <v>472.99400000000003</v>
       </c>
       <c r="J14">
-        <v>3436.7</v>
+        <v>1284.498</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4527.3999999999996</v>
+        <v>1380.0029999999999</v>
       </c>
       <c r="O14">
-        <v>12220.8</v>
+        <v>3243.3409999999999</v>
       </c>
       <c r="P14">
-        <v>3499</v>
+        <v>1298.883</v>
       </c>
       <c r="Q14">
-        <v>1119.5999999999999</v>
+        <v>125.429</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>66000</v>
+        <v>30000</v>
       </c>
       <c r="T14">
-        <v>22451.4</v>
+        <v>3646.7089999999998</v>
       </c>
       <c r="U14">
-        <v>3115.2</v>
+        <v>1230.1559999999999</v>
       </c>
       <c r="V14">
-        <v>1078.2</v>
+        <v>242.185</v>
       </c>
       <c r="W14">
-        <v>-17.399999999999999</v>
+        <v>-3.8420000000000001</v>
       </c>
       <c r="X14">
-        <v>15.1</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>266.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>789.3</v>
+        <v>169.946</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41726</v>
+        <v>38079</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>579.70000000000005</v>
+        <v>145.244</v>
       </c>
       <c r="D15">
-        <v>4662.7</v>
+        <v>1543.191</v>
       </c>
       <c r="E15">
-        <v>3467.6</v>
+        <v>951.66099999999994</v>
       </c>
       <c r="F15">
-        <v>2452.9</v>
+        <v>631.26099999999997</v>
       </c>
       <c r="G15">
-        <v>9404.2999999999993</v>
+        <v>2516.165</v>
       </c>
       <c r="H15">
-        <v>35042.6</v>
+        <v>7285.1270000000004</v>
       </c>
       <c r="I15">
-        <v>1685.4</v>
+        <v>559.66700000000003</v>
       </c>
       <c r="J15">
-        <v>3422.9</v>
+        <v>1274.393</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>-10.375</v>
       </c>
       <c r="N15">
-        <v>4304.3999999999996</v>
+        <v>1607.105</v>
       </c>
       <c r="O15">
-        <v>12013.8</v>
+        <v>3502.893</v>
       </c>
       <c r="P15">
-        <v>3487</v>
+        <v>1341.664</v>
       </c>
       <c r="Q15">
-        <v>231.3</v>
+        <v>-587.66999999999996</v>
       </c>
       <c r="R15">
-        <v>41726</v>
+        <v>38079</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>23028.799999999999</v>
+        <v>3782.2339999999999</v>
       </c>
       <c r="U15">
-        <v>3346.5</v>
+        <v>642.48599999999999</v>
       </c>
       <c r="V15">
-        <v>511.2</v>
+        <v>251.876</v>
       </c>
       <c r="W15">
-        <v>-17.399999999999999</v>
+        <v>-3.847</v>
       </c>
       <c r="X15">
-        <v>14.7</v>
+        <v>-2.72</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>579.70000000000005</v>
+        <v>145.244</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41817</v>
+        <v>38170</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>182.233</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1621.2449999999999</v>
       </c>
       <c r="E16">
-        <v>3631.8</v>
+        <v>1094.029</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>685.70899999999995</v>
       </c>
       <c r="G16">
-        <v>9507.2999999999993</v>
+        <v>2461.6410000000001</v>
       </c>
       <c r="H16">
-        <v>35652.1</v>
+        <v>7683.2060000000001</v>
       </c>
       <c r="I16">
-        <v>1734.8</v>
+        <v>586.99199999999996</v>
       </c>
       <c r="J16">
-        <v>3020</v>
+        <v>1282.309</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4406.7</v>
+        <v>1703.6780000000001</v>
       </c>
       <c r="O16">
-        <v>11863.2</v>
+        <v>3699.8049999999998</v>
       </c>
       <c r="P16">
-        <v>3069</v>
+        <v>1300.626</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-339.20100000000002</v>
       </c>
       <c r="R16">
-        <v>41817</v>
+        <v>38170</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>23788.9</v>
+        <v>3983.4009999999998</v>
       </c>
       <c r="U16">
-        <v>3321.1</v>
+        <v>303.28500000000003</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>246.869</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-4.6219999999999999</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-43.085999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>182.233</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41908</v>
+        <v>38261</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>200.79300000000001</v>
       </c>
       <c r="D17">
-        <v>4707.1000000000004</v>
+        <v>1745.2850000000001</v>
       </c>
       <c r="E17">
-        <v>3498.1</v>
+        <v>1110.2809999999999</v>
       </c>
       <c r="F17">
-        <v>2452.3000000000002</v>
+        <v>739.99300000000005</v>
       </c>
       <c r="G17">
-        <v>9989.5</v>
+        <v>2689.413</v>
       </c>
       <c r="H17">
-        <v>35535.9</v>
+        <v>7922.4740000000002</v>
       </c>
       <c r="I17">
-        <v>1684</v>
+        <v>578.61300000000006</v>
       </c>
       <c r="J17">
-        <v>2964.7</v>
+        <v>918.39</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4471.1000000000004</v>
+        <v>2078.4580000000001</v>
       </c>
       <c r="O17">
-        <v>11725.8</v>
+        <v>3737.7919999999999</v>
       </c>
       <c r="P17">
-        <v>3036.1</v>
+        <v>1308.1420000000001</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>228.32499999999999</v>
       </c>
       <c r="R17">
-        <v>41908</v>
+        <v>38261</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>23810.1</v>
+        <v>4184.6819999999998</v>
       </c>
       <c r="U17">
-        <v>4025.3</v>
+        <v>531.61</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>270.351</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-4.6280000000000001</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>3.9860000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>680.6</v>
+        <v>200.79300000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>661.7</v>
+        <v>217.73</v>
       </c>
       <c r="D18">
-        <v>5224.2</v>
+        <v>1979.58</v>
       </c>
       <c r="E18">
-        <v>3445.8</v>
+        <v>1231.0650000000001</v>
       </c>
       <c r="F18">
-        <v>2705.5</v>
+        <v>835.702</v>
       </c>
       <c r="G18">
-        <v>9431.2999999999993</v>
+        <v>2918.69</v>
       </c>
       <c r="H18">
-        <v>36991.699999999997</v>
+        <v>8493.893</v>
       </c>
       <c r="I18">
-        <v>1825</v>
+        <v>612.06600000000003</v>
       </c>
       <c r="J18">
-        <v>3401.5</v>
+        <v>925.53499999999997</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5396.4</v>
+        <v>2202.2860000000001</v>
       </c>
       <c r="O18">
-        <v>13541.9</v>
+        <v>3874.2109999999998</v>
       </c>
       <c r="P18">
-        <v>3473.4</v>
+        <v>1350.298</v>
       </c>
       <c r="Q18">
-        <v>-1019.7</v>
+        <v>77.504999999999995</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>71000</v>
+        <v>35000</v>
       </c>
       <c r="T18">
-        <v>23449.8</v>
+        <v>4619.6819999999998</v>
       </c>
       <c r="U18">
-        <v>3005.6</v>
+        <v>609.11500000000001</v>
       </c>
       <c r="V18">
-        <v>1239.4000000000001</v>
+        <v>264.12</v>
       </c>
       <c r="W18">
-        <v>-70.3</v>
+        <v>-4.6340000000000003</v>
       </c>
       <c r="X18">
-        <v>280.39999999999998</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>216.4</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>661.7</v>
+        <v>217.73</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42097</v>
+        <v>38443</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>569.79999999999995</v>
+        <v>188.256</v>
       </c>
       <c r="D19">
-        <v>4694.7</v>
+        <v>1825.9480000000001</v>
       </c>
       <c r="E19">
-        <v>3446.9</v>
+        <v>1164.672</v>
       </c>
       <c r="F19">
-        <v>2468.1999999999998</v>
+        <v>775.18399999999997</v>
       </c>
       <c r="G19">
-        <v>8774.4</v>
+        <v>2916.9560000000001</v>
       </c>
       <c r="H19">
-        <v>36072.300000000003</v>
+        <v>8622.7019999999993</v>
       </c>
       <c r="I19">
-        <v>1732.3</v>
+        <v>647.05100000000004</v>
       </c>
       <c r="J19">
-        <v>3053.8</v>
+        <v>927.53599999999994</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-247.5</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.2</v>
+        <v>-8.8710000000000004</v>
       </c>
       <c r="N19">
-        <v>4952.7</v>
+        <v>2206.931</v>
       </c>
       <c r="O19">
-        <v>12681.6</v>
+        <v>3883.7739999999999</v>
       </c>
       <c r="P19">
-        <v>3177.5</v>
+        <v>1323.931</v>
       </c>
       <c r="Q19">
-        <v>-494.6</v>
+        <v>63.957000000000001</v>
       </c>
       <c r="R19">
-        <v>42097</v>
+        <v>38443</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>23390.7</v>
+        <v>4738.9279999999999</v>
       </c>
       <c r="U19">
-        <v>2511</v>
+        <v>673.072</v>
       </c>
       <c r="V19">
-        <v>523.6</v>
+        <v>311.99099999999999</v>
       </c>
       <c r="W19">
-        <v>-70.400000000000006</v>
+        <v>-4.6390000000000002</v>
       </c>
       <c r="X19">
-        <v>-260.8</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-87.1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>569.79999999999995</v>
+        <v>188.256</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42188</v>
+        <v>38534</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>695.7</v>
+        <v>229.02</v>
       </c>
       <c r="D20">
-        <v>1903.8</v>
+        <v>1928.627</v>
       </c>
       <c r="E20">
-        <v>3565.2</v>
+        <v>1176.5820000000001</v>
       </c>
       <c r="F20">
-        <v>1152.3</v>
+        <v>849.60299999999995</v>
       </c>
       <c r="G20">
-        <v>9654.5</v>
+        <v>3040.15</v>
       </c>
       <c r="H20">
-        <v>36986.800000000003</v>
+        <v>8666.1380000000008</v>
       </c>
       <c r="I20">
-        <v>1744.1</v>
+        <v>654.37599999999998</v>
       </c>
       <c r="J20">
-        <v>3052.7</v>
+        <v>931.48199999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5055.6000000000004</v>
+        <v>2232.1970000000001</v>
       </c>
       <c r="O20">
-        <v>12814.8</v>
+        <v>3864.7979999999998</v>
       </c>
       <c r="P20">
-        <v>3162.8</v>
+        <v>1303.1969999999999</v>
       </c>
       <c r="Q20">
-        <v>831</v>
+        <v>135.583</v>
       </c>
       <c r="R20">
-        <v>42188</v>
+        <v>38534</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>24172</v>
+        <v>4801.34</v>
       </c>
       <c r="U20">
-        <v>3342</v>
+        <v>808.65499999999997</v>
       </c>
       <c r="V20">
-        <v>1094</v>
+        <v>282.59800000000001</v>
       </c>
       <c r="W20">
-        <v>-95.5</v>
+        <v>-4.6280000000000001</v>
       </c>
       <c r="X20">
-        <v>-38.6</v>
+        <v>-43.621000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="AA20">
-        <v>695.7</v>
+        <v>229.02</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42279</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1403.3</v>
+        <v>228.821</v>
       </c>
       <c r="D21">
-        <v>3512.2</v>
+        <v>1966.375</v>
       </c>
       <c r="E21">
-        <v>3906.1</v>
+        <v>1364.32</v>
       </c>
       <c r="F21">
-        <v>1893.4</v>
+        <v>847.87099999999998</v>
       </c>
       <c r="G21">
-        <v>8931.7999999999993</v>
+        <v>2799.9389999999999</v>
       </c>
       <c r="H21">
-        <v>49707.9</v>
+        <v>9023.0750000000007</v>
       </c>
       <c r="I21">
-        <v>1819.4</v>
+        <v>719.82500000000005</v>
       </c>
       <c r="J21">
-        <v>11522.7</v>
+        <v>935.65099999999995</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8625.6</v>
+        <v>2199.5639999999999</v>
       </c>
       <c r="O21">
-        <v>26524.1</v>
+        <v>4028.9270000000001</v>
       </c>
       <c r="P21">
-        <v>15012</v>
+        <v>1054.4570000000001</v>
       </c>
       <c r="Q21">
-        <v>-1508.5</v>
+        <v>-533.03399999999999</v>
       </c>
       <c r="R21">
-        <v>42279</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>23183.8</v>
+        <v>4994.1480000000001</v>
       </c>
       <c r="U21">
-        <v>1833.5</v>
+        <v>275.62099999999998</v>
       </c>
       <c r="V21">
-        <v>952.6</v>
+        <v>307.863</v>
       </c>
       <c r="W21">
-        <v>-95.7</v>
+        <v>-6.1749999999999998</v>
       </c>
       <c r="X21">
-        <v>11329.3</v>
+        <v>-308.274</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>43</v>
+        <v>-22.1</v>
       </c>
       <c r="AA21">
-        <v>1403.3</v>
+        <v>228.821</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>688.6</v>
+        <v>251.703</v>
       </c>
       <c r="D22">
-        <v>4323</v>
+        <v>2263.7539999999999</v>
       </c>
       <c r="E22">
-        <v>2985.1</v>
+        <v>1407.8579999999999</v>
       </c>
       <c r="F22">
-        <v>2309.1</v>
+        <v>972.35699999999997</v>
       </c>
       <c r="G22">
-        <v>7836.7</v>
+        <v>2945.0189999999998</v>
       </c>
       <c r="H22">
-        <v>48222.2</v>
+        <v>9163.1090000000004</v>
       </c>
       <c r="I22">
-        <v>1391.9</v>
+        <v>782.85400000000004</v>
       </c>
       <c r="J22">
-        <v>12025.2</v>
+        <v>857.77099999999996</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6170.4</v>
+        <v>2268.5859999999998</v>
       </c>
       <c r="O22">
-        <v>24458.2</v>
+        <v>4082.759</v>
       </c>
       <c r="P22">
-        <v>12870.4</v>
+        <v>1041.722</v>
       </c>
       <c r="Q22">
-        <v>-1042.7</v>
+        <v>39.93</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>81000</v>
+        <v>40000</v>
       </c>
       <c r="T22">
-        <v>23764</v>
+        <v>5080.3500000000004</v>
       </c>
       <c r="U22">
-        <v>790.8</v>
+        <v>315.55099999999999</v>
       </c>
       <c r="V22">
-        <v>1231.5999999999999</v>
+        <v>301.34899999999999</v>
       </c>
       <c r="W22">
-        <v>-92.5</v>
+        <v>-6.1109999999999998</v>
       </c>
       <c r="X22">
-        <v>-1979.7</v>
+        <v>-159.238</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="AA22">
-        <v>688.6</v>
+        <v>251.703</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42461</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>758.4</v>
+        <v>215.71899999999999</v>
       </c>
       <c r="D23">
-        <v>3924.1</v>
+        <v>2143.6610000000001</v>
       </c>
       <c r="E23">
-        <v>3871.2</v>
+        <v>1388.559</v>
       </c>
       <c r="F23">
-        <v>2167.3000000000002</v>
+        <v>916.68899999999996</v>
       </c>
       <c r="G23">
-        <v>7747.2</v>
+        <v>3001.125</v>
       </c>
       <c r="H23">
-        <v>48385.599999999999</v>
+        <v>9354.1779999999999</v>
       </c>
       <c r="I23">
-        <v>1918.8</v>
+        <v>807.25400000000002</v>
       </c>
       <c r="J23">
-        <v>12194.7</v>
+        <v>863.95100000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-1077.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.3</v>
+        <v>-296.18</v>
       </c>
       <c r="N23">
-        <v>5321.3</v>
+        <v>2155.2069999999999</v>
       </c>
       <c r="O23">
-        <v>23808.5</v>
+        <v>3979.8470000000002</v>
       </c>
       <c r="P23">
-        <v>12391.7</v>
+        <v>870.53899999999999</v>
       </c>
       <c r="Q23">
-        <v>-126.5</v>
+        <v>-54.728000000000002</v>
       </c>
       <c r="R23">
-        <v>42461</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>24577.1</v>
+        <v>5374.3310000000001</v>
       </c>
       <c r="U23">
-        <v>664.3</v>
+        <v>260.82299999999998</v>
       </c>
       <c r="V23">
-        <v>772.8</v>
+        <v>337.22199999999998</v>
       </c>
       <c r="W23">
-        <v>-92.7</v>
+        <v>-6.1230000000000002</v>
       </c>
       <c r="X23">
-        <v>-890.6</v>
+        <v>-154.291</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>264.8</v>
+        <v>-84.102000000000004</v>
       </c>
       <c r="AA23">
-        <v>758.4</v>
+        <v>215.71899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42552</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>656.7</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>4241.8999999999996</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3994.8</v>
+        <v>1561.3209999999999</v>
       </c>
       <c r="F24">
-        <v>2381.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>11231</v>
+        <v>3244.221</v>
       </c>
       <c r="H24">
-        <v>51503.7</v>
+        <v>11912.261</v>
       </c>
       <c r="I24">
-        <v>1993.2</v>
+        <v>820.96</v>
       </c>
       <c r="J24">
-        <v>12007.7</v>
+        <v>2382.7170000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8025.9</v>
+        <v>2537.0940000000001</v>
       </c>
       <c r="O24">
-        <v>26383.4</v>
+        <v>6052.7389999999996</v>
       </c>
       <c r="P24">
-        <v>14652.2</v>
+        <v>2663.0590000000002</v>
       </c>
       <c r="Q24">
-        <v>3433.3</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42552</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>25120.3</v>
+        <v>5859.5219999999999</v>
       </c>
       <c r="U24">
-        <v>4097.6000000000004</v>
+        <v>284.733</v>
       </c>
       <c r="V24">
-        <v>1281.8</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-110.1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>2364.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>656.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>391.6</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4132.1000000000004</v>
+        <v>2408.4949999999999</v>
       </c>
       <c r="E25">
-        <v>3081.8</v>
+        <v>1595.579</v>
       </c>
       <c r="F25">
-        <v>2286</v>
+        <v>1089.104</v>
       </c>
       <c r="G25">
-        <v>6493.2</v>
+        <v>3228.2910000000002</v>
       </c>
       <c r="H25">
-        <v>41297.5</v>
+        <v>12022.567999999999</v>
       </c>
       <c r="I25">
-        <v>1354.5</v>
+        <v>844.46900000000005</v>
       </c>
       <c r="J25">
-        <v>7503.1</v>
+        <v>2261.5430000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4763.3999999999996</v>
+        <v>2364.6770000000001</v>
       </c>
       <c r="O25">
-        <v>18033.099999999999</v>
+        <v>5871.1710000000003</v>
       </c>
       <c r="P25">
-        <v>8312.2000000000007</v>
+        <v>2275.355</v>
       </c>
       <c r="Q25">
-        <v>-3126.2</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>23264.400000000001</v>
+        <v>6151.3969999999999</v>
       </c>
       <c r="U25">
-        <v>971.4</v>
+        <v>263.952</v>
       </c>
       <c r="V25">
-        <v>818.2</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>-110.5</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-3778.4</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>391.6</v>
+        <v>268.07100000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>747</v>
+        <v>323.71699999999998</v>
       </c>
       <c r="D26">
-        <v>4584.3</v>
+        <v>2625.3939999999998</v>
       </c>
       <c r="E26">
-        <v>3186.1</v>
+        <v>1654.7249999999999</v>
       </c>
       <c r="F26">
-        <v>2525.4</v>
+        <v>1179.827</v>
       </c>
       <c r="G26">
-        <v>6665.1</v>
+        <v>3436.739</v>
       </c>
       <c r="H26">
-        <v>45295.3</v>
+        <v>12864.151</v>
       </c>
       <c r="I26">
-        <v>1485</v>
+        <v>932.87</v>
       </c>
       <c r="J26">
-        <v>9674.2000000000007</v>
+        <v>2422.8609999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6874</v>
+        <v>2459.7139999999999</v>
       </c>
       <c r="O26">
-        <v>22218.5</v>
+        <v>6219.491</v>
       </c>
       <c r="P26">
-        <v>12269</v>
+        <v>2433.7159999999999</v>
       </c>
       <c r="Q26">
-        <v>-7.7</v>
+        <v>53.857999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>62000</v>
+        <v>45000</v>
       </c>
       <c r="T26">
-        <v>23076.799999999999</v>
+        <v>6644.66</v>
       </c>
       <c r="U26">
-        <v>963.7</v>
+        <v>317.81</v>
       </c>
       <c r="V26">
-        <v>649</v>
+        <v>463.19799999999998</v>
       </c>
       <c r="W26">
-        <v>-86.5</v>
+        <v>-6.1639999999999997</v>
       </c>
       <c r="X26">
-        <v>4347</v>
+        <v>108.337</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>747</v>
+        <v>323.71699999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>506.1</v>
+        <v>254.804</v>
       </c>
       <c r="D27">
-        <v>4205.7</v>
+        <v>2521.7040000000002</v>
       </c>
       <c r="E27">
-        <v>3034.9</v>
+        <v>1682.874</v>
       </c>
       <c r="F27">
-        <v>2334.3000000000002</v>
+        <v>1139.903</v>
       </c>
       <c r="G27">
-        <v>6318.9</v>
+        <v>3306.0740000000001</v>
       </c>
       <c r="H27">
-        <v>45245.1</v>
+        <v>13088.218000000001</v>
       </c>
       <c r="I27">
-        <v>1402.2</v>
+        <v>949.34400000000005</v>
       </c>
       <c r="J27">
-        <v>9729.2999999999993</v>
+        <v>2294.8339999999998</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-434.9</v>
+        <v>-138.63</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-6.593</v>
       </c>
       <c r="N27">
-        <v>6003.1</v>
+        <v>2098.4949999999999</v>
       </c>
       <c r="O27">
-        <v>21454</v>
+        <v>6041.4750000000004</v>
       </c>
       <c r="P27">
-        <v>11950.3</v>
+        <v>2325.3440000000001</v>
       </c>
       <c r="Q27">
-        <v>-159.80000000000001</v>
+        <v>-120.246</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>23791.1</v>
+        <v>7046.7430000000004</v>
       </c>
       <c r="U27">
-        <v>803.9</v>
+        <v>197.56399999999999</v>
       </c>
       <c r="V27">
-        <v>560.20000000000005</v>
+        <v>322.89800000000002</v>
       </c>
       <c r="W27">
-        <v>-86.6</v>
+        <v>-6.1820000000000004</v>
       </c>
       <c r="X27">
-        <v>-590.70000000000005</v>
+        <v>-114.648</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>506.1</v>
+        <v>254.804</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>557.29999999999995</v>
+        <v>311.154</v>
       </c>
       <c r="D28">
-        <v>4510.1000000000004</v>
+        <v>2631.8850000000002</v>
       </c>
       <c r="E28">
-        <v>3214.8</v>
+        <v>1732.1859999999999</v>
       </c>
       <c r="F28">
-        <v>2482.3000000000002</v>
+        <v>1201.251</v>
       </c>
       <c r="G28">
-        <v>6256.6</v>
+        <v>3279.0120000000002</v>
       </c>
       <c r="H28">
-        <v>45646.8</v>
+        <v>13146.694</v>
       </c>
       <c r="I28">
-        <v>1427</v>
+        <v>987.80399999999997</v>
       </c>
       <c r="J28">
-        <v>11422.5</v>
+        <v>2133.2040000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4202.6000000000004</v>
+        <v>2028.7919999999999</v>
       </c>
       <c r="O28">
-        <v>21051.599999999999</v>
+        <v>5812.6360000000004</v>
       </c>
       <c r="P28">
-        <v>11592</v>
+        <v>2158.5770000000002</v>
       </c>
       <c r="Q28">
-        <v>-77.5</v>
+        <v>-23.419</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>24595.200000000001</v>
+        <v>7334.058</v>
       </c>
       <c r="U28">
-        <v>726.4</v>
+        <v>174.14500000000001</v>
       </c>
       <c r="V28">
-        <v>1010.5</v>
+        <v>368.76600000000002</v>
       </c>
       <c r="W28">
-        <v>-97.3</v>
+        <v>-9.2420000000000009</v>
       </c>
       <c r="X28">
-        <v>-925</v>
+        <v>-288.14999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>557.29999999999995</v>
+        <v>311.154</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>572.1</v>
+        <v>483.721</v>
       </c>
       <c r="D29">
-        <v>4528.2</v>
+        <v>2731.1509999999998</v>
       </c>
       <c r="E29">
-        <v>3254.6</v>
+        <v>1826.7090000000001</v>
       </c>
       <c r="F29">
-        <v>2536.8000000000002</v>
+        <v>1249.211</v>
       </c>
       <c r="G29">
-        <v>6260.2</v>
+        <v>3386.0529999999999</v>
       </c>
       <c r="H29">
-        <v>45851.3</v>
+        <v>13775.038</v>
       </c>
       <c r="I29">
-        <v>1501.8</v>
+        <v>1016.023</v>
       </c>
       <c r="J29">
-        <v>10726.8</v>
+        <v>1926.846</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4387.5</v>
+        <v>2092.4180000000001</v>
       </c>
       <c r="O29">
-        <v>20470.7</v>
+        <v>5721.6869999999999</v>
       </c>
       <c r="P29">
-        <v>10909</v>
+        <v>1947.2059999999999</v>
       </c>
       <c r="Q29">
-        <v>-77.8</v>
+        <v>35.136000000000003</v>
       </c>
       <c r="R29">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>25380.6</v>
+        <v>8053.3509999999997</v>
       </c>
       <c r="U29">
-        <v>648.6</v>
+        <v>209.28100000000001</v>
       </c>
       <c r="V29">
-        <v>1072.4000000000001</v>
+        <v>382.79700000000003</v>
       </c>
       <c r="W29">
-        <v>-97.1</v>
+        <v>-9.3109999999999999</v>
       </c>
       <c r="X29">
-        <v>-1028.9000000000001</v>
+        <v>-184.614</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>299.642</v>
       </c>
       <c r="AA29">
-        <v>572.1</v>
+        <v>483.721</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>856.6</v>
+        <v>320.22500000000002</v>
       </c>
       <c r="D30">
-        <v>5085.7</v>
+        <v>3141.1770000000001</v>
       </c>
       <c r="E30">
-        <v>3521.8</v>
+        <v>1984.384</v>
       </c>
       <c r="F30">
-        <v>2877.1</v>
+        <v>1450.53</v>
       </c>
       <c r="G30">
-        <v>6850</v>
+        <v>4049.7669999999998</v>
       </c>
       <c r="H30">
-        <v>46648.6</v>
+        <v>17471.935000000001</v>
       </c>
       <c r="I30">
-        <v>1509.9</v>
+        <v>1125.5999999999999</v>
       </c>
       <c r="J30">
-        <v>10327.4</v>
+        <v>3395.7640000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4792.3</v>
+        <v>2899.8530000000001</v>
       </c>
       <c r="O30">
-        <v>20280.8</v>
+        <v>8386.2469999999994</v>
       </c>
       <c r="P30">
-        <v>10522.1</v>
+        <v>3726.2440000000001</v>
       </c>
       <c r="Q30">
-        <v>-18.3</v>
+        <v>29.827000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>67000</v>
+        <v>50000</v>
       </c>
       <c r="T30">
-        <v>26367.8</v>
+        <v>9085.6880000000001</v>
       </c>
       <c r="U30">
-        <v>630.29999999999995</v>
+        <v>239.108</v>
       </c>
       <c r="V30">
-        <v>834.7</v>
+        <v>571.31399999999996</v>
       </c>
       <c r="W30">
-        <v>-97.3</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="X30">
-        <v>-553.9</v>
+        <v>2299.5819999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>137.9</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="AA30">
-        <v>856.6</v>
+        <v>320.22500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43189</v>
+        <v>39535</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>566.6</v>
+        <v>276.505</v>
       </c>
       <c r="D31">
-        <v>4695.3999999999996</v>
+        <v>3028.8739999999998</v>
       </c>
       <c r="E31">
-        <v>3270.7</v>
+        <v>2099.5079999999998</v>
       </c>
       <c r="F31">
-        <v>2643.6</v>
+        <v>1417.7159999999999</v>
       </c>
       <c r="G31">
-        <v>7075.1</v>
+        <v>4155.2730000000001</v>
       </c>
       <c r="H31">
-        <v>47145.2</v>
+        <v>17853.022000000001</v>
       </c>
       <c r="I31">
-        <v>1579</v>
+        <v>1144.6489999999999</v>
       </c>
       <c r="J31">
-        <v>10410.700000000001</v>
+        <v>3204.1439999999998</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-236.6</v>
+        <v>-349.48399999999998</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-2.1179999999999999</v>
       </c>
       <c r="N31">
-        <v>4442.8999999999996</v>
+        <v>2981.444</v>
       </c>
       <c r="O31">
-        <v>19943.400000000001</v>
+        <v>8278.4269999999997</v>
       </c>
       <c r="P31">
-        <v>10509.4</v>
+        <v>3505.2660000000001</v>
       </c>
       <c r="Q31">
-        <v>415.4</v>
+        <v>-5.2889999999999997</v>
       </c>
       <c r="R31">
-        <v>43189</v>
+        <v>39535</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>27201.8</v>
+        <v>9574.5949999999993</v>
       </c>
       <c r="U31">
-        <v>1045.7</v>
+        <v>233.81899999999999</v>
       </c>
       <c r="V31">
-        <v>828.9</v>
+        <v>333.15800000000002</v>
       </c>
       <c r="W31">
-        <v>-97.5</v>
+        <v>-9.5530000000000008</v>
       </c>
       <c r="X31">
-        <v>-321.7</v>
+        <v>-285.44099999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>566.6</v>
+        <v>276.505</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43280</v>
+        <v>39626</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>673.8</v>
+        <v>363.44799999999998</v>
       </c>
       <c r="D32">
-        <v>4981</v>
+        <v>3283.895</v>
       </c>
       <c r="E32">
-        <v>3296.6</v>
+        <v>2094.317</v>
       </c>
       <c r="F32">
-        <v>2817.1</v>
+        <v>1560.299</v>
       </c>
       <c r="G32">
-        <v>6913.1</v>
+        <v>4191.7269999999999</v>
       </c>
       <c r="H32">
-        <v>48055.8</v>
+        <v>17994.614000000001</v>
       </c>
       <c r="I32">
-        <v>1587</v>
+        <v>1193.576</v>
       </c>
       <c r="J32">
-        <v>11145.6</v>
+        <v>2740.056</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4605.3999999999996</v>
+        <v>3093.5210000000002</v>
       </c>
       <c r="O32">
-        <v>20831.400000000001</v>
+        <v>7920.3329999999996</v>
       </c>
       <c r="P32">
-        <v>11320.7</v>
+        <v>3052.703</v>
       </c>
       <c r="Q32">
-        <v>-141.69999999999999</v>
+        <v>50.280999999999999</v>
       </c>
       <c r="R32">
-        <v>43280</v>
+        <v>39626</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>27224.400000000001</v>
+        <v>10074.281000000001</v>
       </c>
       <c r="U32">
-        <v>904</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="V32">
-        <v>1036</v>
+        <v>581.77200000000005</v>
       </c>
       <c r="W32">
-        <v>-111.8</v>
+        <v>-9.5670000000000002</v>
       </c>
       <c r="X32">
-        <v>1172.0999999999999</v>
+        <v>-445.572</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>673.8</v>
+        <v>363.44799999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43371</v>
+        <v>39717</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>663.7</v>
+        <v>371.99200000000002</v>
       </c>
       <c r="D33">
-        <v>4853.1000000000004</v>
+        <v>3208.181</v>
       </c>
       <c r="E33">
-        <v>3420.1</v>
+        <v>2100.7950000000001</v>
       </c>
       <c r="F33">
-        <v>2690.5</v>
+        <v>1510.57</v>
       </c>
       <c r="G33">
-        <v>6830.5</v>
+        <v>4121.0659999999998</v>
       </c>
       <c r="H33">
-        <v>47719.5</v>
+        <v>17620.648000000001</v>
       </c>
       <c r="I33">
-        <v>1569.6</v>
+        <v>1148.4880000000001</v>
       </c>
       <c r="J33">
-        <v>10558</v>
+        <v>2391.3020000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4465.3</v>
+        <v>3011.6179999999999</v>
       </c>
       <c r="O33">
-        <v>20034.3</v>
+        <v>7448.4110000000001</v>
       </c>
       <c r="P33">
-        <v>10617.8</v>
+        <v>2707.6819999999998</v>
       </c>
       <c r="Q33">
-        <v>-127.8</v>
+        <v>2.419</v>
       </c>
       <c r="R33">
-        <v>43371</v>
+        <v>39717</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>27685.200000000001</v>
+        <v>10172.236999999999</v>
       </c>
       <c r="U33">
-        <v>776.2</v>
+        <v>286.51900000000001</v>
       </c>
       <c r="V33">
-        <v>919.5</v>
+        <v>434.74299999999999</v>
       </c>
       <c r="W33">
-        <v>-111.9</v>
+        <v>-9.5879999999999992</v>
       </c>
       <c r="X33">
-        <v>-732.7</v>
+        <v>-260.39</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-61.1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>663.7</v>
+        <v>371.99200000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>305.68599999999998</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3176.5059999999999</v>
       </c>
       <c r="E34">
-        <v>3111.8</v>
+        <v>1894.585</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1484.7090000000001</v>
       </c>
       <c r="G34">
-        <v>7093.8</v>
+        <v>4187.1189999999997</v>
       </c>
       <c r="H34">
-        <v>47832.5</v>
+        <v>17490.128000000001</v>
       </c>
       <c r="I34">
-        <v>1495.4</v>
+        <v>1108.961</v>
       </c>
       <c r="J34">
-        <v>9688.5</v>
+        <v>2553.17</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4841.5</v>
+        <v>2745.0970000000002</v>
       </c>
       <c r="O34">
-        <v>19605.8</v>
+        <v>7681.5659999999998</v>
       </c>
       <c r="P34">
-        <v>9740.2999999999993</v>
+        <v>2619.3290000000002</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>106.33499999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>71000</v>
+        <v>50300</v>
       </c>
       <c r="T34">
-        <v>28226.7</v>
+        <v>9808.5619999999999</v>
       </c>
       <c r="U34">
-        <v>787.8</v>
+        <v>392.85399999999998</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>509.35599999999999</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-9.5510000000000002</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>-130.85</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,122 +3587,122 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>305.68599999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43553</v>
+        <v>39906</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>333.8</v>
+        <v>237.71199999999999</v>
       </c>
       <c r="D35">
-        <v>4220.2</v>
+        <v>2627.7440000000001</v>
       </c>
       <c r="E35">
-        <v>3506.2</v>
+        <v>1707.133</v>
       </c>
       <c r="F35">
-        <v>2354.9</v>
+        <v>1258.6089999999999</v>
       </c>
       <c r="G35">
-        <v>10080.4</v>
+        <v>4497.2809999999999</v>
       </c>
       <c r="H35">
-        <v>51774.400000000001</v>
+        <v>17673.114000000001</v>
       </c>
       <c r="I35">
-        <v>1676.2</v>
+        <v>930.81899999999996</v>
       </c>
       <c r="J35">
-        <v>9458.2000000000007</v>
+        <v>2840.79</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-86.1</v>
+        <v>-422.02699999999999</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="N35">
-        <v>4632.8</v>
+        <v>2474.7550000000001</v>
       </c>
       <c r="O35">
-        <v>20205.7</v>
+        <v>7670.1580000000004</v>
       </c>
       <c r="P35">
-        <v>10480.9</v>
+        <v>2917.97</v>
       </c>
       <c r="Q35">
-        <v>3122.2</v>
+        <v>583.09100000000001</v>
       </c>
       <c r="R35">
-        <v>43553</v>
+        <v>39906</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>31568.7</v>
+        <v>10002.956</v>
       </c>
       <c r="U35">
-        <v>3910</v>
+        <v>975.94500000000005</v>
       </c>
       <c r="V35">
-        <v>703.3</v>
+        <v>316.67899999999997</v>
       </c>
       <c r="W35">
-        <v>-112.2</v>
+        <v>-9.5619999999999994</v>
       </c>
       <c r="X35">
-        <v>2877.8</v>
+        <v>326.42399999999998</v>
       </c>
       <c r="Y35">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-43.2</v>
+        <v>-33.978000000000002</v>
       </c>
       <c r="AA35">
-        <v>333.8</v>
+        <v>237.71199999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43644</v>
+        <v>39997</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>731.3</v>
+        <v>295.69400000000002</v>
       </c>
       <c r="D36">
-        <v>4444.5</v>
+        <v>2673.6089999999999</v>
       </c>
       <c r="E36">
-        <v>3566.6</v>
+        <v>1750.114</v>
       </c>
       <c r="F36">
-        <v>2483.8000000000002</v>
+        <v>1262.269</v>
       </c>
       <c r="G36">
-        <v>11603.7</v>
+        <v>4788.6719999999996</v>
       </c>
       <c r="H36">
-        <v>53322</v>
+        <v>18322.397000000001</v>
       </c>
       <c r="I36">
-        <v>1664.1</v>
+        <v>906.54200000000003</v>
       </c>
       <c r="J36">
-        <v>10144.4</v>
+        <v>2863.393</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5008</v>
+        <v>2508.1260000000002</v>
       </c>
       <c r="O36">
-        <v>21108.799999999999</v>
+        <v>7719.87</v>
       </c>
       <c r="P36">
-        <v>11272.3</v>
+        <v>2904.7910000000002</v>
       </c>
       <c r="Q36">
-        <v>1523.6</v>
+        <v>282.46600000000001</v>
       </c>
       <c r="R36">
-        <v>43644</v>
+        <v>39997</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>32213.200000000001</v>
+        <v>10602.527</v>
       </c>
       <c r="U36">
-        <v>5433.6</v>
+        <v>1258.4110000000001</v>
       </c>
       <c r="V36">
-        <v>1171.5</v>
+        <v>485.66500000000002</v>
       </c>
       <c r="W36">
-        <v>-121.7</v>
+        <v>-9.5860000000000003</v>
       </c>
       <c r="X36">
-        <v>605</v>
+        <v>-26.227</v>
       </c>
       <c r="Y36">
-        <v>780.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-49.1</v>
+        <v>-16.79</v>
       </c>
       <c r="AA36">
-        <v>731.3</v>
+        <v>295.69400000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43735</v>
+        <v>40088</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>668</v>
+        <v>351.363</v>
       </c>
       <c r="D37">
-        <v>4378</v>
+        <v>2750.6930000000002</v>
       </c>
       <c r="E37">
-        <v>3544.1</v>
+        <v>1836.2550000000001</v>
       </c>
       <c r="F37">
-        <v>2441.4</v>
+        <v>1320.9570000000001</v>
       </c>
       <c r="G37">
-        <v>20353.7</v>
+        <v>5198.7839999999997</v>
       </c>
       <c r="H37">
-        <v>61531.1</v>
+        <v>19161.906999999999</v>
       </c>
       <c r="I37">
-        <v>1606.8</v>
+        <v>973.15499999999997</v>
       </c>
       <c r="J37">
-        <v>16536.2</v>
+        <v>2899.4969999999998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5934</v>
+        <v>2678.3510000000001</v>
       </c>
       <c r="O37">
-        <v>28335.5</v>
+        <v>7951.3779999999997</v>
       </c>
       <c r="P37">
-        <v>18667.8</v>
+        <v>2950.2109999999998</v>
       </c>
       <c r="Q37">
-        <v>8818.5</v>
+        <v>377.82</v>
       </c>
       <c r="R37">
-        <v>43735</v>
+        <v>40088</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>33195.599999999999</v>
+        <v>11210.529</v>
       </c>
       <c r="U37">
-        <v>14252.1</v>
+        <v>1636.231</v>
       </c>
       <c r="V37">
-        <v>965.6</v>
+        <v>503.14800000000002</v>
       </c>
       <c r="W37">
-        <v>-151.1</v>
+        <v>-9.6280000000000001</v>
       </c>
       <c r="X37">
-        <v>8127.7</v>
+        <v>48.311</v>
       </c>
       <c r="Y37">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-71.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>668</v>
+        <v>351.363</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1274.9000000000001</v>
+        <v>266.935</v>
       </c>
       <c r="D38">
-        <v>4868.3</v>
+        <v>3132.8919999999998</v>
       </c>
       <c r="E38">
-        <v>3268</v>
+        <v>1916.8309999999999</v>
       </c>
       <c r="F38">
-        <v>2703.9</v>
+        <v>1560.1849999999999</v>
       </c>
       <c r="G38">
-        <v>25596</v>
+        <v>5220.6279999999997</v>
       </c>
       <c r="H38">
-        <v>62082</v>
+        <v>19595.419999999998</v>
       </c>
       <c r="I38">
-        <v>1515</v>
+        <v>1051.4870000000001</v>
       </c>
       <c r="J38">
-        <v>21517</v>
+        <v>2889.0230000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4932</v>
+        <v>2760.96</v>
       </c>
       <c r="O38">
-        <v>31800</v>
+        <v>7965.2439999999997</v>
       </c>
       <c r="P38">
-        <v>22526</v>
+        <v>2933.2089999999998</v>
       </c>
       <c r="Q38">
-        <v>5659.7</v>
+        <v>85.688999999999993</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>60000</v>
+        <v>46600</v>
       </c>
       <c r="T38">
-        <v>30282</v>
+        <v>11630.175999999999</v>
       </c>
       <c r="U38">
-        <v>19912</v>
+        <v>1721.92</v>
       </c>
       <c r="V38">
-        <v>1111.5999999999999</v>
+        <v>495.34199999999998</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-12.941000000000001</v>
       </c>
       <c r="X38">
-        <v>4754.5</v>
+        <v>58.723999999999997</v>
       </c>
       <c r="Y38">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-77.599999999999994</v>
+        <v>-16</v>
       </c>
       <c r="AA38">
-        <v>1274.9000000000001</v>
+        <v>266.935</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43924</v>
+        <v>40270</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>595.1</v>
+        <v>300.233</v>
       </c>
       <c r="D39">
-        <v>4343.1000000000004</v>
+        <v>3007.8290000000002</v>
       </c>
       <c r="E39">
-        <v>3433.3</v>
+        <v>1981.4110000000001</v>
       </c>
       <c r="F39">
-        <v>2442.8000000000002</v>
+        <v>1468.712</v>
       </c>
       <c r="G39">
-        <v>11142.6</v>
+        <v>4541.0770000000002</v>
       </c>
       <c r="H39">
-        <v>68930.3</v>
+        <v>19880.646000000001</v>
       </c>
       <c r="I39">
-        <v>1748.3</v>
+        <v>1161.7909999999999</v>
       </c>
       <c r="J39">
-        <v>22737.200000000001</v>
+        <v>2822.2979999999998</v>
       </c>
       <c r="K39">
-        <v>790.2</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-7.5220000000000002</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-2.919</v>
       </c>
       <c r="N39">
-        <v>8465.6</v>
+        <v>2857.806</v>
       </c>
       <c r="O39">
-        <v>37863.9</v>
+        <v>8027.4679999999998</v>
       </c>
       <c r="P39">
-        <v>26831.5</v>
+        <v>2885.8490000000002</v>
       </c>
       <c r="Q39">
-        <v>-15544.6</v>
+        <v>-915.55200000000002</v>
       </c>
       <c r="R39">
-        <v>43924</v>
+        <v>40270</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>31066.400000000001</v>
+        <v>11853.178</v>
       </c>
       <c r="U39">
-        <v>4367.7</v>
+        <v>806.36800000000005</v>
       </c>
       <c r="V39">
-        <v>819</v>
+        <v>393.87900000000002</v>
       </c>
       <c r="W39">
-        <v>-138.1</v>
+        <v>-12.962</v>
       </c>
       <c r="X39">
-        <v>4633.5</v>
+        <v>6.91</v>
       </c>
       <c r="Y39">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-37.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>595.1</v>
+        <v>300.233</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44015</v>
+        <v>40361</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>927.3</v>
+        <v>372.476</v>
       </c>
       <c r="D40">
-        <v>5297.4</v>
+        <v>3217.4279999999999</v>
       </c>
       <c r="E40">
-        <v>3465.4</v>
+        <v>2025.9780000000001</v>
       </c>
       <c r="F40">
-        <v>2852.6</v>
+        <v>1605.5530000000001</v>
       </c>
       <c r="G40">
-        <v>12343.8</v>
+        <v>5044.9309999999996</v>
       </c>
       <c r="H40">
-        <v>71268.399999999994</v>
+        <v>20078.956999999999</v>
       </c>
       <c r="I40">
-        <v>1598.6</v>
+        <v>1223.8900000000001</v>
       </c>
       <c r="J40">
-        <v>22370</v>
+        <v>2754.9659999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5599.9</v>
+        <v>2991.9009999999998</v>
       </c>
       <c r="O40">
-        <v>34995.5</v>
+        <v>8020.9470000000001</v>
       </c>
       <c r="P40">
-        <v>23281.200000000001</v>
+        <v>2824.93</v>
       </c>
       <c r="Q40">
-        <v>1171.5999999999999</v>
+        <v>426.56799999999998</v>
       </c>
       <c r="R40">
-        <v>44015</v>
+        <v>40361</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>36272.9</v>
+        <v>12058.01</v>
       </c>
       <c r="U40">
-        <v>5539.3</v>
+        <v>1232.9359999999999</v>
       </c>
       <c r="V40">
-        <v>1445</v>
+        <v>537.923</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-13.05</v>
       </c>
       <c r="X40">
-        <v>-888</v>
+        <v>81.471000000000004</v>
       </c>
       <c r="Y40">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-90.5</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>927.3</v>
+        <v>372.476</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44106</v>
+        <v>40452</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>883.5</v>
+        <v>646.43499999999995</v>
       </c>
       <c r="D41">
-        <v>5883.2</v>
+        <v>3092.8359999999998</v>
       </c>
       <c r="E41">
-        <v>3562.7</v>
+        <v>2032.6610000000001</v>
       </c>
       <c r="F41">
-        <v>3642.7</v>
+        <v>1611.9349999999999</v>
       </c>
       <c r="G41">
-        <v>12541.2</v>
+        <v>5460.6229999999996</v>
       </c>
       <c r="H41">
-        <v>72890.7</v>
+        <v>21497.834999999999</v>
       </c>
       <c r="I41">
-        <v>1678.3</v>
+        <v>1178.865</v>
       </c>
       <c r="J41">
-        <v>21806.1</v>
+        <v>2822.259</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>6038.4</v>
+        <v>3079.4270000000001</v>
       </c>
       <c r="O41">
-        <v>34918.199999999997</v>
+        <v>8325.902</v>
       </c>
       <c r="P41">
-        <v>22760.799999999999</v>
+        <v>2861.7420000000002</v>
       </c>
       <c r="Q41">
-        <v>148.4</v>
+        <v>402.10500000000002</v>
       </c>
       <c r="R41">
-        <v>44106</v>
+        <v>40452</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>37972.5</v>
+        <v>13171.933000000001</v>
       </c>
       <c r="U41">
-        <v>5687.7</v>
+        <v>1635.0409999999999</v>
       </c>
       <c r="V41">
-        <v>1722.7</v>
+        <v>579.26700000000005</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-13.074999999999999</v>
       </c>
       <c r="X41">
-        <v>-1319.8</v>
+        <v>-19.399000000000001</v>
       </c>
       <c r="Y41">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-87.1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>883.5</v>
+        <v>646.43499999999995</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>473.85599999999999</v>
+      </c>
+      <c r="D42">
+        <v>3231.94</v>
+      </c>
+      <c r="E42">
+        <v>2097.9740000000002</v>
+      </c>
+      <c r="F42">
+        <v>1772.3240000000001</v>
+      </c>
+      <c r="G42">
+        <v>6065.4549999999999</v>
+      </c>
+      <c r="H42">
+        <v>22217.13</v>
+      </c>
+      <c r="I42">
+        <v>1124.8209999999999</v>
+      </c>
+      <c r="J42">
+        <v>2783.9070000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3320.7020000000002</v>
+      </c>
+      <c r="O42">
+        <v>8444.3639999999996</v>
+      </c>
+      <c r="P42">
+        <v>2824.6680000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-2.0609999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>48200</v>
+      </c>
+      <c r="T42">
+        <v>13772.766</v>
+      </c>
+      <c r="U42">
+        <v>1632.98</v>
+      </c>
+      <c r="V42">
+        <v>573.28200000000004</v>
+      </c>
+      <c r="W42">
+        <v>-13.127000000000001</v>
+      </c>
+      <c r="X42">
+        <v>47.822000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>473.85599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>429.358</v>
+      </c>
+      <c r="D43">
+        <v>3292.1979999999999</v>
+      </c>
+      <c r="E43">
+        <v>2210.2240000000002</v>
+      </c>
+      <c r="F43">
+        <v>1748.85</v>
+      </c>
+      <c r="G43">
+        <v>6131.8919999999998</v>
+      </c>
+      <c r="H43">
+        <v>23034.881000000001</v>
+      </c>
+      <c r="I43">
+        <v>1239.1369999999999</v>
+      </c>
+      <c r="J43">
+        <v>2668.0390000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.0209999999999999</v>
+      </c>
+      <c r="N43">
+        <v>3323.855</v>
+      </c>
+      <c r="O43">
+        <v>8311.1919999999991</v>
+      </c>
+      <c r="P43">
+        <v>2726.9609999999998</v>
+      </c>
+      <c r="Q43">
+        <v>-39.420999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40634</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>14723.689</v>
+      </c>
+      <c r="U43">
+        <v>1593.559</v>
+      </c>
+      <c r="V43">
+        <v>436.483</v>
+      </c>
+      <c r="W43">
+        <v>-13.268000000000001</v>
+      </c>
+      <c r="X43">
+        <v>52.462000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>429.358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>648.76400000000001</v>
+      </c>
+      <c r="D44">
+        <v>3635.8710000000001</v>
+      </c>
+      <c r="E44">
+        <v>3099.4180000000001</v>
+      </c>
+      <c r="F44">
+        <v>1917.5519999999999</v>
+      </c>
+      <c r="G44">
+        <v>6554.8</v>
+      </c>
+      <c r="H44">
+        <v>31513.376</v>
+      </c>
+      <c r="I44">
+        <v>1515.1130000000001</v>
+      </c>
+      <c r="J44">
+        <v>6524.9309999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4281.2960000000003</v>
+      </c>
+      <c r="O44">
+        <v>14957.857</v>
+      </c>
+      <c r="P44">
+        <v>6572.8630000000003</v>
+      </c>
+      <c r="Q44">
+        <v>-1041.9760000000001</v>
+      </c>
+      <c r="R44">
+        <v>40725</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>16555.519</v>
+      </c>
+      <c r="U44">
+        <v>551.58299999999997</v>
+      </c>
+      <c r="V44">
+        <v>662.649</v>
+      </c>
+      <c r="W44">
+        <v>-13.705</v>
+      </c>
+      <c r="X44">
+        <v>3216.777</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>648.76400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>523.428</v>
+      </c>
+      <c r="D45">
+        <v>4445.7870000000003</v>
+      </c>
+      <c r="E45">
+        <v>3007.192</v>
+      </c>
+      <c r="F45">
+        <v>2183.0810000000001</v>
+      </c>
+      <c r="G45">
+        <v>6314.5379999999996</v>
+      </c>
+      <c r="H45">
+        <v>30618.423999999999</v>
+      </c>
+      <c r="I45">
+        <v>1467.3489999999999</v>
+      </c>
+      <c r="J45">
+        <v>5813.4059999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4123.6949999999997</v>
+      </c>
+      <c r="O45">
+        <v>14056.272999999999</v>
+      </c>
+      <c r="P45">
+        <v>5895.69</v>
+      </c>
+      <c r="Q45">
+        <v>-67.215000000000003</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>16562.151000000002</v>
+      </c>
+      <c r="U45">
+        <v>484.36799999999999</v>
+      </c>
+      <c r="V45">
+        <v>699.94200000000001</v>
+      </c>
+      <c r="W45">
+        <v>-17.155999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-645.83399999999995</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>523.428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>570.75</v>
+      </c>
+      <c r="D46">
+        <v>4716.6440000000002</v>
+      </c>
+      <c r="E46">
+        <v>3049.9</v>
+      </c>
+      <c r="F46">
+        <v>2512.0169999999998</v>
+      </c>
+      <c r="G46">
+        <v>6272.4</v>
+      </c>
+      <c r="H46">
+        <v>29949.5</v>
+      </c>
+      <c r="I46">
+        <v>1422.4</v>
+      </c>
+      <c r="J46">
+        <v>5206.8</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4172</v>
+      </c>
+      <c r="O46">
+        <v>12977.7</v>
+      </c>
+      <c r="P46">
+        <v>5305.2</v>
+      </c>
+      <c r="Q46">
+        <v>52.612000000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>59000</v>
+      </c>
+      <c r="T46">
+        <v>16971.8</v>
+      </c>
+      <c r="U46">
+        <v>537</v>
+      </c>
+      <c r="V46">
+        <v>827.226</v>
+      </c>
+      <c r="W46">
+        <v>-17.170999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-534.80499999999995</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>570.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>612.9</v>
+      </c>
+      <c r="D47">
+        <v>4316.2</v>
+      </c>
+      <c r="E47">
+        <v>2996.4569999999999</v>
+      </c>
+      <c r="F47">
+        <v>2235.5</v>
+      </c>
+      <c r="G47">
+        <v>6543.223</v>
+      </c>
+      <c r="H47">
+        <v>30420.958999999999</v>
+      </c>
+      <c r="I47">
+        <v>1465.982</v>
+      </c>
+      <c r="J47">
+        <v>4862.7160000000003</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-362.9</v>
+      </c>
+      <c r="M47">
+        <v>-1.4</v>
+      </c>
+      <c r="N47">
+        <v>3912.5659999999998</v>
+      </c>
+      <c r="O47">
+        <v>12529.757</v>
+      </c>
+      <c r="P47">
+        <v>4925.8239999999996</v>
+      </c>
+      <c r="Q47">
+        <v>506.3</v>
+      </c>
+      <c r="R47">
+        <v>40998</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>17891.202000000001</v>
+      </c>
+      <c r="U47">
+        <v>1043.2829999999999</v>
+      </c>
+      <c r="V47">
+        <v>645.29999999999995</v>
+      </c>
+      <c r="W47">
+        <v>-17.3</v>
+      </c>
+      <c r="X47">
+        <v>-310.60000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>612.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>600.20000000000005</v>
+      </c>
+      <c r="D48">
+        <v>4553.5</v>
+      </c>
+      <c r="E48">
+        <v>3094.25</v>
+      </c>
+      <c r="F48">
+        <v>2355.5</v>
+      </c>
+      <c r="G48">
+        <v>6610.4949999999999</v>
+      </c>
+      <c r="H48">
+        <v>31170.582999999999</v>
+      </c>
+      <c r="I48">
+        <v>1511.0609999999999</v>
+      </c>
+      <c r="J48">
+        <v>4847.62</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4029.701</v>
+      </c>
+      <c r="O48">
+        <v>12802.859</v>
+      </c>
+      <c r="P48">
+        <v>4903.027</v>
+      </c>
+      <c r="Q48">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="R48">
+        <v>41089</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>18367.723999999998</v>
+      </c>
+      <c r="U48">
+        <v>1118.24</v>
+      </c>
+      <c r="V48">
+        <v>1008.8</v>
+      </c>
+      <c r="W48">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="X48">
+        <v>68</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>600.20000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>548.70000000000005</v>
+      </c>
+      <c r="D49">
+        <v>4415.5</v>
+      </c>
+      <c r="E49">
+        <v>2984.7280000000001</v>
+      </c>
+      <c r="F49">
+        <v>2278</v>
+      </c>
+      <c r="G49">
+        <v>6908</v>
+      </c>
+      <c r="H49">
+        <v>31585.42</v>
+      </c>
+      <c r="I49">
+        <v>1492.6320000000001</v>
+      </c>
+      <c r="J49">
+        <v>4659.1580000000004</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3934.6889999999999</v>
+      </c>
+      <c r="O49">
+        <v>12632.654</v>
+      </c>
+      <c r="P49">
+        <v>4714.2209999999995</v>
+      </c>
+      <c r="Q49">
+        <v>423.1</v>
+      </c>
+      <c r="R49">
+        <v>41180</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>18952.766</v>
+      </c>
+      <c r="U49">
+        <v>1541.335</v>
+      </c>
+      <c r="V49">
+        <v>961.2</v>
+      </c>
+      <c r="W49">
+        <v>-17.3</v>
+      </c>
+      <c r="X49">
+        <v>-423.1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>548.70000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>630.4</v>
+      </c>
+      <c r="D50">
+        <v>4975.2</v>
+      </c>
+      <c r="E50">
+        <v>3267.3</v>
+      </c>
+      <c r="F50">
+        <v>2545.3000000000002</v>
+      </c>
+      <c r="G50">
+        <v>7587.8</v>
+      </c>
+      <c r="H50">
+        <v>32941</v>
+      </c>
+      <c r="I50">
+        <v>1546.3</v>
+      </c>
+      <c r="J50">
+        <v>5287.6</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4206.1000000000004</v>
+      </c>
+      <c r="O50">
+        <v>13857.1</v>
+      </c>
+      <c r="P50">
+        <v>5343.1</v>
+      </c>
+      <c r="Q50">
+        <v>137.4</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>63000</v>
+      </c>
+      <c r="T50">
+        <v>19083.900000000001</v>
+      </c>
+      <c r="U50">
+        <v>1678.7</v>
+      </c>
+      <c r="V50">
+        <v>799.7</v>
+      </c>
+      <c r="W50">
+        <v>-34.4</v>
+      </c>
+      <c r="X50">
+        <v>277.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>630.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41362</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>691.9</v>
+      </c>
+      <c r="D51">
+        <v>4444.7</v>
+      </c>
+      <c r="E51">
+        <v>3118.3</v>
+      </c>
+      <c r="F51">
+        <v>2325.6999999999998</v>
+      </c>
+      <c r="G51">
+        <v>7910</v>
+      </c>
+      <c r="H51">
+        <v>32469.3</v>
+      </c>
+      <c r="I51">
+        <v>1534.5</v>
+      </c>
+      <c r="J51">
+        <v>4404.3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-764.3</v>
+      </c>
+      <c r="M51">
+        <v>-0.5</v>
+      </c>
+      <c r="N51">
+        <v>3926.5</v>
+      </c>
+      <c r="O51">
+        <v>12720.1</v>
+      </c>
+      <c r="P51">
+        <v>4471.3</v>
+      </c>
+      <c r="Q51">
+        <v>472</v>
+      </c>
+      <c r="R51">
+        <v>41362</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>19749.2</v>
+      </c>
+      <c r="U51">
+        <v>2150.6999999999998</v>
+      </c>
+      <c r="V51">
+        <v>636.5</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-710.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>692</v>
+      </c>
+      <c r="AA51">
+        <v>691.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41453</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="D52">
+        <v>4737.5</v>
+      </c>
+      <c r="E52">
+        <v>3281.4</v>
+      </c>
+      <c r="F52">
+        <v>2495.5</v>
+      </c>
+      <c r="G52">
+        <v>8231</v>
+      </c>
+      <c r="H52">
+        <v>33109</v>
+      </c>
+      <c r="I52">
+        <v>1621.4</v>
+      </c>
+      <c r="J52">
+        <v>4100.8999999999996</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4132.5</v>
+      </c>
+      <c r="O52">
+        <v>12744.4</v>
+      </c>
+      <c r="P52">
+        <v>4154.8</v>
+      </c>
+      <c r="Q52">
+        <v>174.2</v>
+      </c>
+      <c r="R52">
+        <v>41453</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>20364.599999999999</v>
+      </c>
+      <c r="U52">
+        <v>2324.9</v>
+      </c>
+      <c r="V52">
+        <v>899.2</v>
+      </c>
+      <c r="W52">
+        <v>-17.3</v>
+      </c>
+      <c r="X52">
+        <v>-275.2</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41544</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>597</v>
+      </c>
+      <c r="D53">
+        <v>4669.1000000000004</v>
+      </c>
+      <c r="E53">
+        <v>3372.7</v>
+      </c>
+      <c r="F53">
+        <v>2424.6999999999998</v>
+      </c>
+      <c r="G53">
+        <v>8023.7</v>
+      </c>
+      <c r="H53">
+        <v>33721.199999999997</v>
+      </c>
+      <c r="I53">
+        <v>1683.6</v>
+      </c>
+      <c r="J53">
+        <v>3445.5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4279.3999999999996</v>
+      </c>
+      <c r="O53">
+        <v>12350.4</v>
+      </c>
+      <c r="P53">
+        <v>3502</v>
+      </c>
+      <c r="Q53">
+        <v>-329.3</v>
+      </c>
+      <c r="R53">
+        <v>41544</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>21370.799999999999</v>
+      </c>
+      <c r="U53">
+        <v>1995.6</v>
+      </c>
+      <c r="V53">
+        <v>971.4</v>
+      </c>
+      <c r="W53">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-635.20000000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>789.3</v>
+      </c>
+      <c r="D54">
+        <v>5266.7</v>
+      </c>
+      <c r="E54">
+        <v>3451.6</v>
+      </c>
+      <c r="F54">
+        <v>2738.2</v>
+      </c>
+      <c r="G54">
+        <v>9113.7000000000007</v>
+      </c>
+      <c r="H54">
+        <v>34672.199999999997</v>
+      </c>
+      <c r="I54">
+        <v>1778.2</v>
+      </c>
+      <c r="J54">
+        <v>3436.7</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4527.3999999999996</v>
+      </c>
+      <c r="O54">
+        <v>12220.8</v>
+      </c>
+      <c r="P54">
+        <v>3499</v>
+      </c>
+      <c r="Q54">
+        <v>1119.5999999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>66000</v>
+      </c>
+      <c r="T54">
+        <v>22451.4</v>
+      </c>
+      <c r="U54">
+        <v>3115.2</v>
+      </c>
+      <c r="V54">
+        <v>1078.2</v>
+      </c>
+      <c r="W54">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="X54">
+        <v>15.1</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="AA54">
+        <v>789.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>579.70000000000005</v>
+      </c>
+      <c r="D55">
+        <v>4662.7</v>
+      </c>
+      <c r="E55">
+        <v>3467.6</v>
+      </c>
+      <c r="F55">
+        <v>2452.9</v>
+      </c>
+      <c r="G55">
+        <v>9404.2999999999993</v>
+      </c>
+      <c r="H55">
+        <v>35042.6</v>
+      </c>
+      <c r="I55">
+        <v>1685.4</v>
+      </c>
+      <c r="J55">
+        <v>3422.9</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
+      </c>
+      <c r="N55">
+        <v>4304.3999999999996</v>
+      </c>
+      <c r="O55">
+        <v>12013.8</v>
+      </c>
+      <c r="P55">
+        <v>3487</v>
+      </c>
+      <c r="Q55">
+        <v>231.3</v>
+      </c>
+      <c r="R55">
+        <v>41726</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>23028.799999999999</v>
+      </c>
+      <c r="U55">
+        <v>3346.5</v>
+      </c>
+      <c r="V55">
+        <v>511.2</v>
+      </c>
+      <c r="W55">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="X55">
+        <v>14.7</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>579.70000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41817</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>3631.8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>9507.2999999999993</v>
+      </c>
+      <c r="H56">
+        <v>35652.1</v>
+      </c>
+      <c r="I56">
+        <v>1734.8</v>
+      </c>
+      <c r="J56">
+        <v>3020</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4406.7</v>
+      </c>
+      <c r="O56">
+        <v>11863.2</v>
+      </c>
+      <c r="P56">
+        <v>3069</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41817</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>23788.9</v>
+      </c>
+      <c r="U56">
+        <v>3321.1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41908</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>4707.1000000000004</v>
+      </c>
+      <c r="E57">
+        <v>3498.1</v>
+      </c>
+      <c r="F57">
+        <v>2452.3000000000002</v>
+      </c>
+      <c r="G57">
+        <v>9989.5</v>
+      </c>
+      <c r="H57">
+        <v>35535.9</v>
+      </c>
+      <c r="I57">
+        <v>1684</v>
+      </c>
+      <c r="J57">
+        <v>2964.7</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4471.1000000000004</v>
+      </c>
+      <c r="O57">
+        <v>11725.8</v>
+      </c>
+      <c r="P57">
+        <v>3036.1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>41908</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>23810.1</v>
+      </c>
+      <c r="U57">
+        <v>4025.3</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>680.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>661.7</v>
+      </c>
+      <c r="D58">
+        <v>5224.2</v>
+      </c>
+      <c r="E58">
+        <v>3445.8</v>
+      </c>
+      <c r="F58">
+        <v>2705.5</v>
+      </c>
+      <c r="G58">
+        <v>9431.2999999999993</v>
+      </c>
+      <c r="H58">
+        <v>36991.699999999997</v>
+      </c>
+      <c r="I58">
+        <v>1825</v>
+      </c>
+      <c r="J58">
+        <v>3401.5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5396.4</v>
+      </c>
+      <c r="O58">
+        <v>13541.9</v>
+      </c>
+      <c r="P58">
+        <v>3473.4</v>
+      </c>
+      <c r="Q58">
+        <v>-1019.7</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>71000</v>
+      </c>
+      <c r="T58">
+        <v>23449.8</v>
+      </c>
+      <c r="U58">
+        <v>3005.6</v>
+      </c>
+      <c r="V58">
+        <v>1239.4000000000001</v>
+      </c>
+      <c r="W58">
+        <v>-70.3</v>
+      </c>
+      <c r="X58">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>216.4</v>
+      </c>
+      <c r="AA58">
+        <v>661.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42097</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>569.79999999999995</v>
+      </c>
+      <c r="D59">
+        <v>4694.7</v>
+      </c>
+      <c r="E59">
+        <v>3446.9</v>
+      </c>
+      <c r="F59">
+        <v>2468.1999999999998</v>
+      </c>
+      <c r="G59">
+        <v>8774.4</v>
+      </c>
+      <c r="H59">
+        <v>36072.300000000003</v>
+      </c>
+      <c r="I59">
+        <v>1732.3</v>
+      </c>
+      <c r="J59">
+        <v>3053.8</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-247.5</v>
+      </c>
+      <c r="M59">
+        <v>-1.2</v>
+      </c>
+      <c r="N59">
+        <v>4952.7</v>
+      </c>
+      <c r="O59">
+        <v>12681.6</v>
+      </c>
+      <c r="P59">
+        <v>3177.5</v>
+      </c>
+      <c r="Q59">
+        <v>-494.6</v>
+      </c>
+      <c r="R59">
+        <v>42097</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>23390.7</v>
+      </c>
+      <c r="U59">
+        <v>2511</v>
+      </c>
+      <c r="V59">
+        <v>523.6</v>
+      </c>
+      <c r="W59">
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="X59">
+        <v>-260.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-87.1</v>
+      </c>
+      <c r="AA59">
+        <v>569.79999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>695.7</v>
+      </c>
+      <c r="D60">
+        <v>1903.8</v>
+      </c>
+      <c r="E60">
+        <v>3565.2</v>
+      </c>
+      <c r="F60">
+        <v>1152.3</v>
+      </c>
+      <c r="G60">
+        <v>9654.5</v>
+      </c>
+      <c r="H60">
+        <v>36986.800000000003</v>
+      </c>
+      <c r="I60">
+        <v>1744.1</v>
+      </c>
+      <c r="J60">
+        <v>3052.7</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5055.6000000000004</v>
+      </c>
+      <c r="O60">
+        <v>12814.8</v>
+      </c>
+      <c r="P60">
+        <v>3162.8</v>
+      </c>
+      <c r="Q60">
+        <v>831</v>
+      </c>
+      <c r="R60">
+        <v>42188</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>24172</v>
+      </c>
+      <c r="U60">
+        <v>3342</v>
+      </c>
+      <c r="V60">
+        <v>1094</v>
+      </c>
+      <c r="W60">
+        <v>-95.5</v>
+      </c>
+      <c r="X60">
+        <v>-38.6</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>695.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1403.3</v>
+      </c>
+      <c r="D61">
+        <v>3512.2</v>
+      </c>
+      <c r="E61">
+        <v>3906.1</v>
+      </c>
+      <c r="F61">
+        <v>1893.4</v>
+      </c>
+      <c r="G61">
+        <v>8931.7999999999993</v>
+      </c>
+      <c r="H61">
+        <v>49707.9</v>
+      </c>
+      <c r="I61">
+        <v>1819.4</v>
+      </c>
+      <c r="J61">
+        <v>11522.7</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8625.6</v>
+      </c>
+      <c r="O61">
+        <v>26524.1</v>
+      </c>
+      <c r="P61">
+        <v>15012</v>
+      </c>
+      <c r="Q61">
+        <v>-1508.5</v>
+      </c>
+      <c r="R61">
+        <v>42279</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>23183.8</v>
+      </c>
+      <c r="U61">
+        <v>1833.5</v>
+      </c>
+      <c r="V61">
+        <v>952.6</v>
+      </c>
+      <c r="W61">
+        <v>-95.7</v>
+      </c>
+      <c r="X61">
+        <v>11329.3</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>43</v>
+      </c>
+      <c r="AA61">
+        <v>1403.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>688.6</v>
+      </c>
+      <c r="D62">
+        <v>4323</v>
+      </c>
+      <c r="E62">
+        <v>2985.1</v>
+      </c>
+      <c r="F62">
+        <v>2309.1</v>
+      </c>
+      <c r="G62">
+        <v>7836.7</v>
+      </c>
+      <c r="H62">
+        <v>48222.2</v>
+      </c>
+      <c r="I62">
+        <v>1391.9</v>
+      </c>
+      <c r="J62">
+        <v>12025.2</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>6170.4</v>
+      </c>
+      <c r="O62">
+        <v>24458.2</v>
+      </c>
+      <c r="P62">
+        <v>12870.4</v>
+      </c>
+      <c r="Q62">
+        <v>-1042.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>81000</v>
+      </c>
+      <c r="T62">
+        <v>23764</v>
+      </c>
+      <c r="U62">
+        <v>790.8</v>
+      </c>
+      <c r="V62">
+        <v>1231.5999999999999</v>
+      </c>
+      <c r="W62">
+        <v>-92.5</v>
+      </c>
+      <c r="X62">
+        <v>-1979.7</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>688.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>758.4</v>
+      </c>
+      <c r="D63">
+        <v>3924.1</v>
+      </c>
+      <c r="E63">
+        <v>3871.2</v>
+      </c>
+      <c r="F63">
+        <v>2167.3000000000002</v>
+      </c>
+      <c r="G63">
+        <v>7747.2</v>
+      </c>
+      <c r="H63">
+        <v>48385.599999999999</v>
+      </c>
+      <c r="I63">
+        <v>1918.8</v>
+      </c>
+      <c r="J63">
+        <v>12194.7</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-1077.0999999999999</v>
+      </c>
+      <c r="M63">
+        <v>-0.3</v>
+      </c>
+      <c r="N63">
+        <v>5321.3</v>
+      </c>
+      <c r="O63">
+        <v>23808.5</v>
+      </c>
+      <c r="P63">
+        <v>12391.7</v>
+      </c>
+      <c r="Q63">
+        <v>-126.5</v>
+      </c>
+      <c r="R63">
+        <v>42461</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>24577.1</v>
+      </c>
+      <c r="U63">
+        <v>664.3</v>
+      </c>
+      <c r="V63">
+        <v>772.8</v>
+      </c>
+      <c r="W63">
+        <v>-92.7</v>
+      </c>
+      <c r="X63">
+        <v>-890.6</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>264.8</v>
+      </c>
+      <c r="AA63">
+        <v>758.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>656.7</v>
+      </c>
+      <c r="D64">
+        <v>4241.8999999999996</v>
+      </c>
+      <c r="E64">
+        <v>3994.8</v>
+      </c>
+      <c r="F64">
+        <v>2381.3000000000002</v>
+      </c>
+      <c r="G64">
+        <v>11231</v>
+      </c>
+      <c r="H64">
+        <v>51503.7</v>
+      </c>
+      <c r="I64">
+        <v>1993.2</v>
+      </c>
+      <c r="J64">
+        <v>12007.7</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8025.9</v>
+      </c>
+      <c r="O64">
+        <v>26383.4</v>
+      </c>
+      <c r="P64">
+        <v>14652.2</v>
+      </c>
+      <c r="Q64">
+        <v>3433.3</v>
+      </c>
+      <c r="R64">
+        <v>42552</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>25120.3</v>
+      </c>
+      <c r="U64">
+        <v>4097.6000000000004</v>
+      </c>
+      <c r="V64">
+        <v>1281.8</v>
+      </c>
+      <c r="W64">
+        <v>-110.1</v>
+      </c>
+      <c r="X64">
+        <v>2364.6999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>656.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>391.6</v>
+      </c>
+      <c r="D65">
+        <v>4132.1000000000004</v>
+      </c>
+      <c r="E65">
+        <v>3081.8</v>
+      </c>
+      <c r="F65">
+        <v>2286</v>
+      </c>
+      <c r="G65">
+        <v>6493.2</v>
+      </c>
+      <c r="H65">
+        <v>41297.5</v>
+      </c>
+      <c r="I65">
+        <v>1354.5</v>
+      </c>
+      <c r="J65">
+        <v>7503.1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4763.3999999999996</v>
+      </c>
+      <c r="O65">
+        <v>18033.099999999999</v>
+      </c>
+      <c r="P65">
+        <v>8312.2000000000007</v>
+      </c>
+      <c r="Q65">
+        <v>-3126.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>23264.400000000001</v>
+      </c>
+      <c r="U65">
+        <v>971.4</v>
+      </c>
+      <c r="V65">
+        <v>818.2</v>
+      </c>
+      <c r="W65">
+        <v>-110.5</v>
+      </c>
+      <c r="X65">
+        <v>-3778.4</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>391.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>747</v>
+      </c>
+      <c r="D66">
+        <v>4584.3</v>
+      </c>
+      <c r="E66">
+        <v>3186.1</v>
+      </c>
+      <c r="F66">
+        <v>2525.4</v>
+      </c>
+      <c r="G66">
+        <v>6665.1</v>
+      </c>
+      <c r="H66">
+        <v>45295.3</v>
+      </c>
+      <c r="I66">
+        <v>1485</v>
+      </c>
+      <c r="J66">
+        <v>9674.2000000000007</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>6874</v>
+      </c>
+      <c r="O66">
+        <v>22218.5</v>
+      </c>
+      <c r="P66">
+        <v>12269</v>
+      </c>
+      <c r="Q66">
+        <v>-7.7</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>62000</v>
+      </c>
+      <c r="T66">
+        <v>23076.799999999999</v>
+      </c>
+      <c r="U66">
+        <v>963.7</v>
+      </c>
+      <c r="V66">
+        <v>649</v>
+      </c>
+      <c r="W66">
+        <v>-86.5</v>
+      </c>
+      <c r="X66">
+        <v>4347</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>506.1</v>
+      </c>
+      <c r="D67">
+        <v>4205.7</v>
+      </c>
+      <c r="E67">
+        <v>3034.9</v>
+      </c>
+      <c r="F67">
+        <v>2334.3000000000002</v>
+      </c>
+      <c r="G67">
+        <v>6318.9</v>
+      </c>
+      <c r="H67">
+        <v>45245.1</v>
+      </c>
+      <c r="I67">
+        <v>1402.2</v>
+      </c>
+      <c r="J67">
+        <v>9729.2999999999993</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-434.9</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>6003.1</v>
+      </c>
+      <c r="O67">
+        <v>21454</v>
+      </c>
+      <c r="P67">
+        <v>11950.3</v>
+      </c>
+      <c r="Q67">
+        <v>-159.80000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>23791.1</v>
+      </c>
+      <c r="U67">
+        <v>803.9</v>
+      </c>
+      <c r="V67">
+        <v>560.20000000000005</v>
+      </c>
+      <c r="W67">
+        <v>-86.6</v>
+      </c>
+      <c r="X67">
+        <v>-590.70000000000005</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>506.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="D68">
+        <v>4510.1000000000004</v>
+      </c>
+      <c r="E68">
+        <v>3214.8</v>
+      </c>
+      <c r="F68">
+        <v>2482.3000000000002</v>
+      </c>
+      <c r="G68">
+        <v>6256.6</v>
+      </c>
+      <c r="H68">
+        <v>45646.8</v>
+      </c>
+      <c r="I68">
+        <v>1427</v>
+      </c>
+      <c r="J68">
+        <v>11422.5</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4202.6000000000004</v>
+      </c>
+      <c r="O68">
+        <v>21051.599999999999</v>
+      </c>
+      <c r="P68">
+        <v>11592</v>
+      </c>
+      <c r="Q68">
+        <v>-77.5</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>24595.200000000001</v>
+      </c>
+      <c r="U68">
+        <v>726.4</v>
+      </c>
+      <c r="V68">
+        <v>1010.5</v>
+      </c>
+      <c r="W68">
+        <v>-97.3</v>
+      </c>
+      <c r="X68">
+        <v>-925</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>557.29999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>572.1</v>
+      </c>
+      <c r="D69">
+        <v>4528.2</v>
+      </c>
+      <c r="E69">
+        <v>3254.6</v>
+      </c>
+      <c r="F69">
+        <v>2536.8000000000002</v>
+      </c>
+      <c r="G69">
+        <v>6260.2</v>
+      </c>
+      <c r="H69">
+        <v>45851.3</v>
+      </c>
+      <c r="I69">
+        <v>1501.8</v>
+      </c>
+      <c r="J69">
+        <v>10726.8</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4387.5</v>
+      </c>
+      <c r="O69">
+        <v>20470.7</v>
+      </c>
+      <c r="P69">
+        <v>10909</v>
+      </c>
+      <c r="Q69">
+        <v>-77.8</v>
+      </c>
+      <c r="R69">
+        <v>43007</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>25380.6</v>
+      </c>
+      <c r="U69">
+        <v>648.6</v>
+      </c>
+      <c r="V69">
+        <v>1072.4000000000001</v>
+      </c>
+      <c r="W69">
+        <v>-97.1</v>
+      </c>
+      <c r="X69">
+        <v>-1028.9000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>572.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>856.6</v>
+      </c>
+      <c r="D70">
+        <v>5085.7</v>
+      </c>
+      <c r="E70">
+        <v>3521.8</v>
+      </c>
+      <c r="F70">
+        <v>2877.1</v>
+      </c>
+      <c r="G70">
+        <v>6850</v>
+      </c>
+      <c r="H70">
+        <v>46648.6</v>
+      </c>
+      <c r="I70">
+        <v>1509.9</v>
+      </c>
+      <c r="J70">
+        <v>10327.4</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4792.3</v>
+      </c>
+      <c r="O70">
+        <v>20280.8</v>
+      </c>
+      <c r="P70">
+        <v>10522.1</v>
+      </c>
+      <c r="Q70">
+        <v>-18.3</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>67000</v>
+      </c>
+      <c r="T70">
+        <v>26367.8</v>
+      </c>
+      <c r="U70">
+        <v>630.29999999999995</v>
+      </c>
+      <c r="V70">
+        <v>834.7</v>
+      </c>
+      <c r="W70">
+        <v>-97.3</v>
+      </c>
+      <c r="X70">
+        <v>-553.9</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>137.9</v>
+      </c>
+      <c r="AA70">
+        <v>856.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>566.6</v>
+      </c>
+      <c r="D71">
+        <v>4695.3999999999996</v>
+      </c>
+      <c r="E71">
+        <v>3270.7</v>
+      </c>
+      <c r="F71">
+        <v>2643.6</v>
+      </c>
+      <c r="G71">
+        <v>7075.1</v>
+      </c>
+      <c r="H71">
+        <v>47145.2</v>
+      </c>
+      <c r="I71">
+        <v>1579</v>
+      </c>
+      <c r="J71">
+        <v>10410.700000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-236.6</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4442.8999999999996</v>
+      </c>
+      <c r="O71">
+        <v>19943.400000000001</v>
+      </c>
+      <c r="P71">
+        <v>10509.4</v>
+      </c>
+      <c r="Q71">
+        <v>415.4</v>
+      </c>
+      <c r="R71">
+        <v>43189</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>27201.8</v>
+      </c>
+      <c r="U71">
+        <v>1045.7</v>
+      </c>
+      <c r="V71">
+        <v>828.9</v>
+      </c>
+      <c r="W71">
+        <v>-97.5</v>
+      </c>
+      <c r="X71">
+        <v>-321.7</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>21.9</v>
+      </c>
+      <c r="AA71">
+        <v>566.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>673.8</v>
+      </c>
+      <c r="D72">
+        <v>4981</v>
+      </c>
+      <c r="E72">
+        <v>3296.6</v>
+      </c>
+      <c r="F72">
+        <v>2817.1</v>
+      </c>
+      <c r="G72">
+        <v>6913.1</v>
+      </c>
+      <c r="H72">
+        <v>48055.8</v>
+      </c>
+      <c r="I72">
+        <v>1587</v>
+      </c>
+      <c r="J72">
+        <v>11145.6</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4605.3999999999996</v>
+      </c>
+      <c r="O72">
+        <v>20831.400000000001</v>
+      </c>
+      <c r="P72">
+        <v>11320.7</v>
+      </c>
+      <c r="Q72">
+        <v>-141.69999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43280</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>27224.400000000001</v>
+      </c>
+      <c r="U72">
+        <v>904</v>
+      </c>
+      <c r="V72">
+        <v>1036</v>
+      </c>
+      <c r="W72">
+        <v>-111.8</v>
+      </c>
+      <c r="X72">
+        <v>1172.0999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0.2</v>
+      </c>
+      <c r="AA72">
+        <v>673.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>663.7</v>
+      </c>
+      <c r="D73">
+        <v>4853.1000000000004</v>
+      </c>
+      <c r="E73">
+        <v>3420.1</v>
+      </c>
+      <c r="F73">
+        <v>2690.5</v>
+      </c>
+      <c r="G73">
+        <v>6830.5</v>
+      </c>
+      <c r="H73">
+        <v>47719.5</v>
+      </c>
+      <c r="I73">
+        <v>1569.6</v>
+      </c>
+      <c r="J73">
+        <v>10558</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4465.3</v>
+      </c>
+      <c r="O73">
+        <v>20034.3</v>
+      </c>
+      <c r="P73">
+        <v>10617.8</v>
+      </c>
+      <c r="Q73">
+        <v>-127.8</v>
+      </c>
+      <c r="R73">
+        <v>43371</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>27685.200000000001</v>
+      </c>
+      <c r="U73">
+        <v>776.2</v>
+      </c>
+      <c r="V73">
+        <v>919.5</v>
+      </c>
+      <c r="W73">
+        <v>-111.9</v>
+      </c>
+      <c r="X73">
+        <v>-732.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-61.1</v>
+      </c>
+      <c r="AA73">
+        <v>663.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>3111.8</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>7093.8</v>
+      </c>
+      <c r="H74">
+        <v>47832.5</v>
+      </c>
+      <c r="I74">
+        <v>1495.4</v>
+      </c>
+      <c r="J74">
+        <v>9688.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4841.5</v>
+      </c>
+      <c r="O74">
+        <v>19605.8</v>
+      </c>
+      <c r="P74">
+        <v>9740.2999999999993</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>71000</v>
+      </c>
+      <c r="T74">
+        <v>28226.7</v>
+      </c>
+      <c r="U74">
+        <v>787.8</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>333.8</v>
+      </c>
+      <c r="D75">
+        <v>4220.2</v>
+      </c>
+      <c r="E75">
+        <v>3506.2</v>
+      </c>
+      <c r="F75">
+        <v>2354.9</v>
+      </c>
+      <c r="G75">
+        <v>10080.4</v>
+      </c>
+      <c r="H75">
+        <v>51774.400000000001</v>
+      </c>
+      <c r="I75">
+        <v>1676.2</v>
+      </c>
+      <c r="J75">
+        <v>9458.2000000000007</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-86.1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>4632.8</v>
+      </c>
+      <c r="O75">
+        <v>20205.7</v>
+      </c>
+      <c r="P75">
+        <v>10480.9</v>
+      </c>
+      <c r="Q75">
+        <v>3122.2</v>
+      </c>
+      <c r="R75">
+        <v>43553</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>31568.7</v>
+      </c>
+      <c r="U75">
+        <v>3910</v>
+      </c>
+      <c r="V75">
+        <v>703.3</v>
+      </c>
+      <c r="W75">
+        <v>-112.2</v>
+      </c>
+      <c r="X75">
+        <v>2877.8</v>
+      </c>
+      <c r="Y75">
+        <v>800</v>
+      </c>
+      <c r="Z75">
+        <v>-43.2</v>
+      </c>
+      <c r="AA75">
+        <v>333.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>731.3</v>
+      </c>
+      <c r="D76">
+        <v>4444.5</v>
+      </c>
+      <c r="E76">
+        <v>3566.6</v>
+      </c>
+      <c r="F76">
+        <v>2483.8000000000002</v>
+      </c>
+      <c r="G76">
+        <v>11603.7</v>
+      </c>
+      <c r="H76">
+        <v>53322</v>
+      </c>
+      <c r="I76">
+        <v>1664.1</v>
+      </c>
+      <c r="J76">
+        <v>10144.4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5008</v>
+      </c>
+      <c r="O76">
+        <v>21108.799999999999</v>
+      </c>
+      <c r="P76">
+        <v>11272.3</v>
+      </c>
+      <c r="Q76">
+        <v>1523.6</v>
+      </c>
+      <c r="R76">
+        <v>43644</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>32213.200000000001</v>
+      </c>
+      <c r="U76">
+        <v>5433.6</v>
+      </c>
+      <c r="V76">
+        <v>1171.5</v>
+      </c>
+      <c r="W76">
+        <v>-121.7</v>
+      </c>
+      <c r="X76">
+        <v>605</v>
+      </c>
+      <c r="Y76">
+        <v>780.1</v>
+      </c>
+      <c r="Z76">
+        <v>-49.1</v>
+      </c>
+      <c r="AA76">
+        <v>731.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>668</v>
+      </c>
+      <c r="D77">
+        <v>4378</v>
+      </c>
+      <c r="E77">
+        <v>3544.1</v>
+      </c>
+      <c r="F77">
+        <v>2441.4</v>
+      </c>
+      <c r="G77">
+        <v>20353.7</v>
+      </c>
+      <c r="H77">
+        <v>61531.1</v>
+      </c>
+      <c r="I77">
+        <v>1606.8</v>
+      </c>
+      <c r="J77">
+        <v>16536.2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5934</v>
+      </c>
+      <c r="O77">
+        <v>28335.5</v>
+      </c>
+      <c r="P77">
+        <v>18667.8</v>
+      </c>
+      <c r="Q77">
+        <v>8818.5</v>
+      </c>
+      <c r="R77">
+        <v>43735</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>33195.599999999999</v>
+      </c>
+      <c r="U77">
+        <v>14252.1</v>
+      </c>
+      <c r="V77">
+        <v>965.6</v>
+      </c>
+      <c r="W77">
+        <v>-151.1</v>
+      </c>
+      <c r="X77">
+        <v>8127.7</v>
+      </c>
+      <c r="Y77">
+        <v>817</v>
+      </c>
+      <c r="Z77">
+        <v>-71.099999999999994</v>
+      </c>
+      <c r="AA77">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="D78">
+        <v>4868.3</v>
+      </c>
+      <c r="E78">
+        <v>3268</v>
+      </c>
+      <c r="F78">
+        <v>2703.9</v>
+      </c>
+      <c r="G78">
+        <v>25596</v>
+      </c>
+      <c r="H78">
+        <v>62082</v>
+      </c>
+      <c r="I78">
+        <v>1515</v>
+      </c>
+      <c r="J78">
+        <v>21517</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4932</v>
+      </c>
+      <c r="O78">
+        <v>31800</v>
+      </c>
+      <c r="P78">
+        <v>22526</v>
+      </c>
+      <c r="Q78">
+        <v>5659.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>60000</v>
+      </c>
+      <c r="T78">
+        <v>30282</v>
+      </c>
+      <c r="U78">
+        <v>19912</v>
+      </c>
+      <c r="V78">
+        <v>1111.5999999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>4754.5</v>
+      </c>
+      <c r="Y78">
+        <v>639</v>
+      </c>
+      <c r="Z78">
+        <v>-77.599999999999994</v>
+      </c>
+      <c r="AA78">
+        <v>1274.9000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>595.1</v>
+      </c>
+      <c r="D79">
+        <v>4343.1000000000004</v>
+      </c>
+      <c r="E79">
+        <v>3433.3</v>
+      </c>
+      <c r="F79">
+        <v>2442.8000000000002</v>
+      </c>
+      <c r="G79">
+        <v>11142.6</v>
+      </c>
+      <c r="H79">
+        <v>68930.3</v>
+      </c>
+      <c r="I79">
+        <v>1748.3</v>
+      </c>
+      <c r="J79">
+        <v>22737.200000000001</v>
+      </c>
+      <c r="K79">
+        <v>790.2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8465.6</v>
+      </c>
+      <c r="O79">
+        <v>37863.9</v>
+      </c>
+      <c r="P79">
+        <v>26831.5</v>
+      </c>
+      <c r="Q79">
+        <v>-15544.6</v>
+      </c>
+      <c r="R79">
+        <v>43924</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>31066.400000000001</v>
+      </c>
+      <c r="U79">
+        <v>4367.7</v>
+      </c>
+      <c r="V79">
+        <v>819</v>
+      </c>
+      <c r="W79">
+        <v>-138.1</v>
+      </c>
+      <c r="X79">
+        <v>4633.5</v>
+      </c>
+      <c r="Y79">
+        <v>860</v>
+      </c>
+      <c r="Z79">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="AA79">
+        <v>595.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>927.3</v>
+      </c>
+      <c r="D80">
+        <v>5297.4</v>
+      </c>
+      <c r="E80">
+        <v>3465.4</v>
+      </c>
+      <c r="F80">
+        <v>2852.6</v>
+      </c>
+      <c r="G80">
+        <v>12343.8</v>
+      </c>
+      <c r="H80">
+        <v>71268.399999999994</v>
+      </c>
+      <c r="I80">
+        <v>1598.6</v>
+      </c>
+      <c r="J80">
+        <v>22370</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5599.9</v>
+      </c>
+      <c r="O80">
+        <v>34995.5</v>
+      </c>
+      <c r="P80">
+        <v>23281.200000000001</v>
+      </c>
+      <c r="Q80">
+        <v>1171.5999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44015</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>36272.9</v>
+      </c>
+      <c r="U80">
+        <v>5539.3</v>
+      </c>
+      <c r="V80">
+        <v>1445</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-888</v>
+      </c>
+      <c r="Y80">
+        <v>894</v>
+      </c>
+      <c r="Z80">
+        <v>-90.5</v>
+      </c>
+      <c r="AA80">
+        <v>927.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>883.5</v>
+      </c>
+      <c r="D81">
+        <v>5883.2</v>
+      </c>
+      <c r="E81">
+        <v>3562.7</v>
+      </c>
+      <c r="F81">
+        <v>3642.7</v>
+      </c>
+      <c r="G81">
+        <v>12541.2</v>
+      </c>
+      <c r="H81">
+        <v>72890.7</v>
+      </c>
+      <c r="I81">
+        <v>1678.3</v>
+      </c>
+      <c r="J81">
+        <v>21806.1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>6038.4</v>
+      </c>
+      <c r="O81">
+        <v>34918.199999999997</v>
+      </c>
+      <c r="P81">
+        <v>22760.799999999999</v>
+      </c>
+      <c r="Q81">
+        <v>148.4</v>
+      </c>
+      <c r="R81">
+        <v>44106</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>37972.5</v>
+      </c>
+      <c r="U81">
+        <v>5687.7</v>
+      </c>
+      <c r="V81">
+        <v>1722.7</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-1319.8</v>
+      </c>
+      <c r="Y81">
+        <v>935</v>
+      </c>
+      <c r="Z81">
+        <v>-87.1</v>
+      </c>
+      <c r="AA81">
+        <v>883.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1240.0999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>6760.3</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>4110</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>3993.9</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>13802</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>76161</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2049</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>21193</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>7402</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>36384</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>22178</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>347.6</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>69000</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>67000</v>
+      </c>
+      <c r="T82">
         <v>39777</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>6035</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>2221.3000000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-169.6</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1419.7</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>785</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-114.1</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1240.0999999999999</v>
       </c>
     </row>
